--- a/inst/extdata/Template_info_MPI_v10.xlsx
+++ b/inst/extdata/Template_info_MPI_v10.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10513"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10523"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/greymonroe/github/soilcarbon/inst/extdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{288569DA-FA1C-0A40-A5AA-4670CBE6C8A2}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B25770BB-E8F6-3B45-8000-5980937B7600}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16840" yWindow="0" windowWidth="16760" windowHeight="21000" tabRatio="500" firstSheet="1" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10540" yWindow="520" windowWidth="21020" windowHeight="18940" tabRatio="500" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="general info" sheetId="6" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1760" uniqueCount="890">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1761" uniqueCount="894">
   <si>
     <t>curator_name</t>
   </si>
@@ -711,9 +711,6 @@
     <t>notes</t>
   </si>
   <si>
-    <t>numeric, min=-413, max=8900</t>
-  </si>
-  <si>
     <t>numeric, min=0, max=90</t>
   </si>
   <si>
@@ -994,9 +991,6 @@
   </si>
   <si>
     <t>alphanumeric</t>
-  </si>
-  <si>
-    <t>A unique name for a site. See "general information" for details on what qualifies as a Site</t>
   </si>
   <si>
     <t>Controlled Vocaulary</t>
@@ -2786,6 +2780,24 @@
   </si>
   <si>
     <t>No</t>
+  </si>
+  <si>
+    <t>Variable_class</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Vocab</t>
+  </si>
+  <si>
+    <t>Standardized dataset name: "first author_ publication year." Synthesis studies  should report multiple entries for each dataset in the synthesis. Values must match across levels.</t>
+  </si>
+  <si>
+    <t>A unique name for a site. See "general information" for details on what qualifies as a Site. Values must match across levels.</t>
   </si>
 </sst>
 </file>
@@ -3314,6 +3326,13 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3326,13 +3345,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="290">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -3975,74 +3987,74 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>269</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="64">
       <c r="A2" s="5" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="48">
       <c r="A3" s="5" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="32">
       <c r="A4" s="5" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="48">
       <c r="A5" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="B5" s="17" t="s">
         <v>273</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="160">
       <c r="A6" s="5" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="80">
       <c r="A7" s="5" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="64">
       <c r="A8" s="5" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="80">
       <c r="A9" s="5" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -4105,13 +4117,13 @@
   <sheetData>
     <row r="1" spans="1:6" s="4" customFormat="1">
       <c r="A1" s="4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>19</v>
@@ -4120,44 +4132,44 @@
         <v>20</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="30">
       <c r="A2" s="25" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B2" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D2" s="13" t="s">
         <v>50</v>
       </c>
       <c r="E2" s="26" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="30">
       <c r="A3" s="25" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B3" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="E3" s="26" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F3" s="13"/>
     </row>
@@ -4166,16 +4178,16 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="E4" s="26" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F4" s="13"/>
     </row>
@@ -4184,7 +4196,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="C5" s="13" t="s">
         <v>3</v>
@@ -4193,7 +4205,7 @@
         <v>4</v>
       </c>
       <c r="E5" s="26" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F5" s="13"/>
     </row>
@@ -4202,7 +4214,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="C6" s="13" t="s">
         <v>6</v>
@@ -4211,7 +4223,7 @@
         <v>7</v>
       </c>
       <c r="E6" s="26" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F6" s="13"/>
     </row>
@@ -4220,7 +4232,7 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="C7" s="13" t="s">
         <v>9</v>
@@ -4229,7 +4241,7 @@
         <v>10</v>
       </c>
       <c r="E7" s="26" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F7" s="13"/>
     </row>
@@ -4238,7 +4250,7 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="C8" s="13" t="s">
         <v>12</v>
@@ -4247,7 +4259,7 @@
         <v>214</v>
       </c>
       <c r="E8" s="26" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F8" s="13"/>
     </row>
@@ -4256,7 +4268,7 @@
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="C9" s="13" t="s">
         <v>14</v>
@@ -4265,7 +4277,7 @@
         <v>215</v>
       </c>
       <c r="E9" s="26" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F9" s="13"/>
     </row>
@@ -4274,7 +4286,7 @@
         <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C10" s="13" t="s">
         <v>16</v>
@@ -4283,16 +4295,16 @@
         <v>216</v>
       </c>
       <c r="E10" s="26" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F10" s="13"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="25" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B11" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="C11" s="13" t="s">
         <v>17</v>
@@ -4301,7 +4313,7 @@
         <v>18</v>
       </c>
       <c r="E11" s="26" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F11" s="13"/>
     </row>
@@ -4310,7 +4322,7 @@
         <v>217</v>
       </c>
       <c r="B12" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C12" s="13" t="s">
         <v>218</v>
@@ -4319,25 +4331,25 @@
         <v>219</v>
       </c>
       <c r="E12" s="26" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F12" s="13"/>
     </row>
     <row r="13" spans="1:6" ht="30">
       <c r="A13" s="27" t="s">
+        <v>394</v>
+      </c>
+      <c r="B13" t="s">
+        <v>887</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>395</v>
+      </c>
+      <c r="D13" s="13" t="s">
         <v>396</v>
       </c>
-      <c r="B13" t="s">
-        <v>889</v>
-      </c>
-      <c r="C13" s="13" t="s">
+      <c r="E13" s="26" t="s">
         <v>397</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>398</v>
-      </c>
-      <c r="E13" s="26" t="s">
-        <v>399</v>
       </c>
     </row>
   </sheetData>
@@ -4353,10 +4365,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
@@ -4365,18 +4377,19 @@
     <col min="3" max="3" width="37.33203125" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.83203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="107.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="29.1640625" style="1" customWidth="1"/>
+    <col min="6" max="8" width="16.5" style="1" customWidth="1"/>
+    <col min="9" max="9" width="52.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1">
+    <row r="1" spans="1:9" s="4" customFormat="1">
       <c r="A1" s="6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>19</v>
@@ -4385,55 +4398,64 @@
         <v>20</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="30">
+        <v>888</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>890</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>889</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="30">
       <c r="A2" s="25" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B2" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D2" s="13" t="s">
         <v>50</v>
       </c>
       <c r="E2" s="26" t="s">
-        <v>326</v>
-      </c>
-      <c r="F2" s="13" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>892</v>
+      </c>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="11" t="s">
         <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="C3" s="12" t="s">
         <v>22</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>319</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="26" customHeight="1">
+        <v>893</v>
+      </c>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+    </row>
+    <row r="4" spans="1:9" ht="26" customHeight="1">
       <c r="A4" s="11" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B4" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>23</v>
@@ -4441,19 +4463,25 @@
       <c r="D4" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="45" t="s">
-        <v>317</v>
+      <c r="E4" s="50" t="s">
+        <v>316</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="23" customHeight="1">
+        <v>220</v>
+      </c>
+      <c r="G4" s="12">
+        <v>-180</v>
+      </c>
+      <c r="H4" s="12">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="23" customHeight="1">
       <c r="A5" s="11" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B5" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="C5" s="12" t="s">
         <v>25</v>
@@ -4461,17 +4489,23 @@
       <c r="D5" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="45"/>
+      <c r="E5" s="50"/>
       <c r="F5" s="12" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="30">
+        <v>220</v>
+      </c>
+      <c r="G5" s="12">
+        <v>-180</v>
+      </c>
+      <c r="H5" s="12">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="12" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B6" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>26</v>
@@ -4482,16 +4516,19 @@
       <c r="E6" s="12" t="s">
         <v>222</v>
       </c>
-      <c r="F6" s="12" t="s">
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="30">
+    <row r="7" spans="1:9" ht="30">
       <c r="A7" s="12" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B7" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C7" s="12" t="s">
         <v>30</v>
@@ -4503,15 +4540,21 @@
         <v>169</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="30">
+        <v>220</v>
+      </c>
+      <c r="G7" s="12">
+        <v>413</v>
+      </c>
+      <c r="H7" s="12">
+        <v>8900</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="30">
       <c r="A8" s="12" t="s">
         <v>28</v>
       </c>
       <c r="B8" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C8" s="12" t="s">
         <v>29</v>
@@ -4523,6 +4566,8 @@
         <v>168</v>
       </c>
       <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4557,13 +4602,13 @@
   <sheetData>
     <row r="1" spans="1:6" s="4" customFormat="1">
       <c r="A1" s="6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>19</v>
@@ -4572,27 +4617,27 @@
         <v>20</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="30">
       <c r="A2" s="25" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B2" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D2" s="13" t="s">
         <v>50</v>
       </c>
       <c r="E2" s="26" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -4600,16 +4645,16 @@
         <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="C3" s="12" t="s">
         <v>22</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F3" s="12" t="s">
         <v>213</v>
@@ -4617,37 +4662,37 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="12" t="s">
+        <v>419</v>
+      </c>
+      <c r="B4" t="s">
+        <v>887</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>420</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="E4" s="12" t="s">
         <v>421</v>
-      </c>
-      <c r="B4" t="s">
-        <v>889</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>422</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>316</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>423</v>
       </c>
       <c r="F4" s="12"/>
     </row>
     <row r="5" spans="1:6" ht="30">
       <c r="A5" s="11" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B5" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="C5" s="12" t="s">
         <v>51</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F5" s="10" t="s">
         <v>213</v>
@@ -4655,10 +4700,10 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="12" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B6" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>52</v>
@@ -4667,25 +4712,25 @@
         <v>219</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F6" s="12"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="14" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B7" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="45" t="s">
-        <v>332</v>
+      <c r="E7" s="50" t="s">
+        <v>330</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>221</v>
@@ -4693,75 +4738,75 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="14" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B8" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="45"/>
+      <c r="E8" s="50"/>
       <c r="F8" s="7" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="30">
       <c r="A9" s="11" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B9" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D9" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>299</v>
+      </c>
+      <c r="F9" s="12" t="s">
         <v>298</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>300</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="12" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B10" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D10" s="12" t="s">
+        <v>300</v>
+      </c>
+      <c r="E10" s="12" t="s">
         <v>301</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>302</v>
       </c>
       <c r="F10" s="12"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="12" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B11" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D11" s="12" t="s">
         <v>53</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F11" s="12" t="s">
         <v>53</v>
@@ -4769,182 +4814,182 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="12" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B12" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C12" s="12" t="s">
+        <v>284</v>
+      </c>
+      <c r="D12" s="12" t="s">
         <v>285</v>
       </c>
-      <c r="D12" s="12" t="s">
+      <c r="E12" s="12" t="s">
         <v>286</v>
       </c>
-      <c r="E12" s="12" t="s">
+      <c r="F12" s="12" t="s">
         <v>287</v>
-      </c>
-      <c r="F12" s="12" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="12" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B13" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="12" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B14" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="12" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B15" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D15" s="12"/>
       <c r="E15" s="12" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="F15" s="12"/>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="12" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B16" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C16" s="12" t="s">
         <v>58</v>
       </c>
       <c r="D16" s="12"/>
       <c r="E16" s="12" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="F16" s="12"/>
     </row>
     <row r="17" spans="1:6" s="9" customFormat="1">
       <c r="A17" s="14" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="B17" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="F17" s="14" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="18" spans="1:6" s="2" customFormat="1">
       <c r="A18" s="12" t="s">
+        <v>425</v>
+      </c>
+      <c r="B18" t="s">
+        <v>887</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>426</v>
+      </c>
+      <c r="D18" s="12" t="s">
         <v>427</v>
       </c>
-      <c r="B18" t="s">
-        <v>889</v>
-      </c>
-      <c r="C18" s="12" t="s">
+      <c r="E18" s="12" t="s">
         <v>428</v>
       </c>
-      <c r="D18" s="12" t="s">
-        <v>429</v>
-      </c>
-      <c r="E18" s="12" t="s">
-        <v>430</v>
-      </c>
       <c r="F18" s="12" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="12" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B19" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="30">
       <c r="A20" s="12" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B20" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F20" s="12" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="30">
       <c r="A21" s="15" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B21" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C21" s="15" t="s">
         <v>47</v>
@@ -4953,7 +4998,7 @@
         <v>48</v>
       </c>
       <c r="E21" s="15" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F21" s="15" t="s">
         <v>178</v>
@@ -4961,10 +5006,10 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="14" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B22" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C22" s="12" t="s">
         <v>55</v>
@@ -4973,16 +5018,16 @@
         <v>46</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F22" s="12"/>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="12" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B23" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C23" s="12" t="s">
         <v>59</v>
@@ -4994,15 +5039,15 @@
         <v>191</v>
       </c>
       <c r="F23" s="12" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="30">
       <c r="A24" s="15" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B24" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C24" s="15" t="s">
         <v>42</v>
@@ -5014,15 +5059,15 @@
         <v>174</v>
       </c>
       <c r="F24" s="15" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="30">
       <c r="A25" s="12" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B25" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C25" s="12" t="s">
         <v>60</v>
@@ -5034,24 +5079,24 @@
         <v>190</v>
       </c>
       <c r="F25" s="12" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="45">
       <c r="A26" s="15" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B26" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D26" s="15" t="s">
         <v>44</v>
       </c>
       <c r="E26" s="15" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F26" s="15" t="s">
         <v>180</v>
@@ -5059,19 +5104,19 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="15" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B27" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D27" s="15" t="s">
         <v>45</v>
       </c>
       <c r="E27" s="15" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F27" s="15" t="s">
         <v>181</v>
@@ -5079,28 +5124,28 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="16" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B28" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C28" s="16" t="s">
+        <v>227</v>
+      </c>
+      <c r="D28" s="16" t="s">
         <v>228</v>
       </c>
-      <c r="D28" s="16" t="s">
-        <v>229</v>
-      </c>
       <c r="E28" s="15" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F28" s="15"/>
     </row>
     <row r="29" spans="1:6" ht="45">
       <c r="A29" s="12" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B29" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C29" s="12" t="s">
         <v>56</v>
@@ -5117,10 +5162,10 @@
     </row>
     <row r="30" spans="1:6" ht="30">
       <c r="A30" s="15" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B30" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C30" s="15" t="s">
         <v>34</v>
@@ -5137,10 +5182,10 @@
     </row>
     <row r="31" spans="1:6" ht="30">
       <c r="A31" s="15" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B31" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C31" s="15" t="s">
         <v>32</v>
@@ -5152,15 +5197,15 @@
         <v>172</v>
       </c>
       <c r="F31" s="15" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="30">
       <c r="A32" s="15" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B32" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C32" s="15" t="s">
         <v>36</v>
@@ -5172,15 +5217,15 @@
         <v>170</v>
       </c>
       <c r="F32" s="15" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="15" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B33" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C33" s="15" t="s">
         <v>38</v>
@@ -5189,7 +5234,7 @@
         <v>39</v>
       </c>
       <c r="E33" s="15" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F33" s="15" t="s">
         <v>177</v>
@@ -5197,10 +5242,10 @@
     </row>
     <row r="34" spans="1:6" ht="45">
       <c r="A34" s="15" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B34" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C34" s="15" t="s">
         <v>40</v>
@@ -5209,7 +5254,7 @@
         <v>41</v>
       </c>
       <c r="E34" s="15" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F34" s="15" t="s">
         <v>179</v>
@@ -5217,10 +5262,10 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="12" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B35" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C35" s="12" t="s">
         <v>61</v>
@@ -5232,15 +5277,15 @@
         <v>189</v>
       </c>
       <c r="F35" s="12" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="30">
       <c r="A36" s="12" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B36" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C36" s="12" t="s">
         <v>62</v>
@@ -5252,15 +5297,15 @@
         <v>188</v>
       </c>
       <c r="F36" s="12" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="30">
       <c r="A37" s="12" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B37" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C37" s="12" t="s">
         <v>63</v>
@@ -5272,7 +5317,7 @@
         <v>187</v>
       </c>
       <c r="F37" s="12" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -5316,13 +5361,13 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>19</v>
@@ -5331,44 +5376,44 @@
         <v>20</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="30">
       <c r="A2" s="25" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B2" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D2" s="13" t="s">
         <v>50</v>
       </c>
       <c r="E2" s="26" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="49" t="s">
-        <v>888</v>
+      <c r="B3" s="45" t="s">
+        <v>886</v>
       </c>
       <c r="C3" t="s">
         <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F3" t="s">
         <v>213</v>
@@ -5376,19 +5421,19 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B4" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C4" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="D4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E4" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F4" t="s">
         <v>213</v>
@@ -5396,19 +5441,19 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B5" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C5" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="D5" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E5" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="F5" t="s">
         <v>213</v>
@@ -5416,19 +5461,19 @@
     </row>
     <row r="6" spans="1:6" ht="28" customHeight="1">
       <c r="A6" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B6" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C6" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="46" t="s">
-        <v>476</v>
+      <c r="E6" s="51" t="s">
+        <v>474</v>
       </c>
       <c r="F6" t="s">
         <v>221</v>
@@ -5436,426 +5481,426 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B7" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C7" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="D7" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="46"/>
+      <c r="E7" s="51"/>
       <c r="F7" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="28" t="s">
-        <v>445</v>
-      </c>
-      <c r="B8" s="50" t="s">
-        <v>888</v>
+        <v>443</v>
+      </c>
+      <c r="B8" s="46" t="s">
+        <v>886</v>
       </c>
       <c r="C8" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="D8" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="E8" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B9" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C9" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="E9" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="F9" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B10" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C10" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="E10" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B11" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C11" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="E11" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="F11" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B12" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C12" t="s">
+        <v>494</v>
+      </c>
+      <c r="E12" t="s">
         <v>496</v>
       </c>
-      <c r="E12" t="s">
-        <v>498</v>
-      </c>
       <c r="F12" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B13" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C13" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="E13" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="F13" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B14" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C14" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="E14" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B15" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C15" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="E15" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="F15" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B16" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C16" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="D16" t="s">
         <v>220</v>
       </c>
       <c r="E16" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="F16" s="41" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
+        <v>522</v>
+      </c>
+      <c r="B17" t="s">
+        <v>887</v>
+      </c>
+      <c r="C17" t="s">
+        <v>523</v>
+      </c>
+      <c r="E17" t="s">
         <v>524</v>
       </c>
-      <c r="B17" t="s">
-        <v>889</v>
-      </c>
-      <c r="C17" t="s">
-        <v>525</v>
-      </c>
-      <c r="E17" t="s">
-        <v>526</v>
-      </c>
       <c r="F17" s="1" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B18" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C18" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="D18" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="E18" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B19" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C19" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="D19" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="E19" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B20" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C20" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="D20" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="E20" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="F20" s="41" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B21" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C21" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="D21" t="s">
         <v>37</v>
       </c>
       <c r="E21" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="F21" s="41" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B22" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C22" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="D22" t="s">
         <v>37</v>
       </c>
       <c r="E22" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="F22" s="41" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="115.25" customHeight="1">
       <c r="A23" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B23" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C23" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="D23" t="s">
         <v>220</v>
       </c>
       <c r="E23" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="F23" s="42" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B24" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C24" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="D24" t="s">
         <v>220</v>
       </c>
       <c r="E24" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="96">
       <c r="A25" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B25" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C25" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="D25" t="s">
         <v>220</v>
       </c>
       <c r="E25" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B26" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C26" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="D26" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="E26" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="F26" s="41" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B27" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C27" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="D27" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="E27" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B28" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C28" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="D28" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E28" s="30" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B29" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C29" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="D29" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E29" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B30" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C30" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="D30" t="s">
         <v>104</v>
       </c>
       <c r="E30" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="F30" s="12" t="s">
         <v>104</v>
@@ -5863,110 +5908,110 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B31" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C31" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="D31" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="E31" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="F31" s="41" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B32" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C32" t="s">
+        <v>537</v>
+      </c>
+      <c r="D32" t="s">
+        <v>482</v>
+      </c>
+      <c r="E32" t="s">
         <v>539</v>
-      </c>
-      <c r="D32" t="s">
-        <v>484</v>
-      </c>
-      <c r="E32" t="s">
-        <v>541</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B33" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C33" t="s">
+        <v>538</v>
+      </c>
+      <c r="D33" t="s">
+        <v>482</v>
+      </c>
+      <c r="E33" t="s">
         <v>540</v>
-      </c>
-      <c r="D33" t="s">
-        <v>484</v>
-      </c>
-      <c r="E33" t="s">
-        <v>542</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B34" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C34" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="D34" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="E34" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="F34" s="41" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B35" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C35" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="D35" t="s">
         <v>220</v>
       </c>
       <c r="E35" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B36" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C36" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="D36" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="E36" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
     </row>
   </sheetData>
@@ -6006,13 +6051,13 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D1" s="8" t="s">
         <v>19</v>
@@ -6021,27 +6066,27 @@
         <v>20</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" customFormat="1" ht="30">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" customFormat="1">
       <c r="A2" s="25" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B2" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D2" s="13" t="s">
         <v>50</v>
       </c>
       <c r="E2" s="26" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -6049,16 +6094,16 @@
         <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="C3" s="12" t="s">
         <v>22</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F3" s="12" t="s">
         <v>213</v>
@@ -6066,19 +6111,19 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="11" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B4" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="F4" s="12" t="s">
         <v>213</v>
@@ -6086,19 +6131,19 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="11" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="B5" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="C5" s="12" t="s">
         <v>64</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F5" s="12" t="s">
         <v>213</v>
@@ -6106,63 +6151,63 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="11" t="s">
+        <v>626</v>
+      </c>
+      <c r="B6" t="s">
+        <v>886</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>478</v>
+      </c>
+      <c r="E6" s="12" t="s">
         <v>628</v>
-      </c>
-      <c r="B6" t="s">
-        <v>888</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>629</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>480</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>630</v>
       </c>
       <c r="F6" s="12"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="11" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="B7" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="D7" s="12"/>
       <c r="E7" s="12" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="11" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="B8" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="11" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="B9" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="C9" s="12" t="s">
         <v>65</v>
@@ -6171,18 +6216,18 @@
         <v>43</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="11" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B10" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="C10" s="12" t="s">
         <v>66</v>
@@ -6191,24 +6236,24 @@
         <v>43</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="30">
       <c r="A11" s="12" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C11" s="12" t="s">
         <v>67</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E11" s="12" t="s">
         <v>186</v>
@@ -6217,19 +6262,19 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="12" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="F12" s="12" t="s">
         <v>53</v>
@@ -6237,10 +6282,10 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="12" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C13" s="12" t="s">
         <v>68</v>
@@ -6253,10 +6298,10 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="12" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C14" s="12" t="s">
         <v>69</v>
@@ -6269,10 +6314,10 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="12" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C15" s="12" t="s">
         <v>70</v>
@@ -6289,10 +6334,10 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="12" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C16" s="12" t="s">
         <v>72</v>
@@ -6304,15 +6349,15 @@
         <v>195</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="12" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C17" s="12" t="s">
         <v>74</v>
@@ -6324,15 +6369,15 @@
         <v>196</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="12" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C18" s="12" t="s">
         <v>75</v>
@@ -6345,10 +6390,10 @@
     </row>
     <row r="19" spans="1:6" ht="30">
       <c r="A19" s="12" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C19" s="12" t="s">
         <v>78</v>
@@ -6360,15 +6405,15 @@
         <v>200</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="30">
       <c r="A20" s="12" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C20" s="12" t="s">
         <v>79</v>
@@ -6380,15 +6425,15 @@
         <v>201</v>
       </c>
       <c r="F20" s="12" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="30">
       <c r="A21" s="12" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C21" s="12" t="s">
         <v>80</v>
@@ -6400,15 +6445,15 @@
         <v>202</v>
       </c>
       <c r="F21" s="12" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="12" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C22" s="12" t="s">
         <v>81</v>
@@ -6417,38 +6462,38 @@
         <v>37</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="F22" s="12" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="12" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C23" s="12" t="s">
         <v>82</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="F23" s="12" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="12" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C24" s="12" t="s">
         <v>83</v>
@@ -6457,36 +6502,36 @@
         <v>84</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="F24" s="12"/>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="12" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C25" s="12" t="s">
         <v>85</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="F25" s="12" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="12" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C26" s="12" t="s">
         <v>76</v>
@@ -6496,15 +6541,15 @@
         <v>198</v>
       </c>
       <c r="F26" s="12" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="12" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C27" s="12" t="s">
         <v>77</v>
@@ -6514,51 +6559,51 @@
         <v>199</v>
       </c>
       <c r="F27" s="12" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="12" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D28" s="12"/>
       <c r="E28" s="12" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F28" s="12" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="12" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C29" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="D29" s="12" t="s">
         <v>235</v>
       </c>
-      <c r="D29" s="12" t="s">
-        <v>236</v>
-      </c>
       <c r="E29" s="12" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F29" s="12"/>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="12" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C30" s="12" t="s">
         <v>86</v>
@@ -6570,15 +6615,15 @@
         <v>203</v>
       </c>
       <c r="F30" s="12" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="12" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C31" s="12" t="s">
         <v>88</v>
@@ -6587,112 +6632,112 @@
         <v>89</v>
       </c>
       <c r="E31" s="12" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="F31" s="12" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="12" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="D32" s="12" t="s">
         <v>89</v>
       </c>
       <c r="E32" s="12" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="F32" s="12" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="12" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D33" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="E33" s="45" t="s">
-        <v>368</v>
+      <c r="E33" s="50" t="s">
+        <v>366</v>
       </c>
       <c r="F33" s="12" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="12" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D34" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="E34" s="45"/>
+      <c r="E34" s="50"/>
       <c r="F34" s="12" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="12" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D35" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="E35" s="45"/>
+      <c r="E35" s="50"/>
       <c r="F35" s="12" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="12" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D36" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="E36" s="45"/>
+      <c r="E36" s="50"/>
       <c r="F36" s="12" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="12" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C37" s="12" t="s">
         <v>90</v>
@@ -6700,17 +6745,17 @@
       <c r="D37" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="E37" s="45"/>
+      <c r="E37" s="50"/>
       <c r="F37" s="12" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="12" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C38" s="12" t="s">
         <v>91</v>
@@ -6719,78 +6764,78 @@
         <v>37</v>
       </c>
       <c r="E38" s="12" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="F38" s="12" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="12" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D39" s="12" t="s">
         <v>37</v>
       </c>
       <c r="E39" s="12" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="F39" s="12" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="12" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D40" s="12" t="s">
         <v>37</v>
       </c>
       <c r="E40" s="12" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="F40" s="12" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="12" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D41" s="12" t="s">
         <v>37</v>
       </c>
       <c r="E41" s="12" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="F41" s="12" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="30">
       <c r="A42" s="12" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C42" s="12" t="s">
         <v>92</v>
@@ -6802,15 +6847,15 @@
         <v>173</v>
       </c>
       <c r="F42" s="12" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="30">
       <c r="A43" s="12" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C43" s="12" t="s">
         <v>93</v>
@@ -6822,15 +6867,15 @@
         <v>206</v>
       </c>
       <c r="F43" s="12" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="12" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C44" s="12" t="s">
         <v>94</v>
@@ -6842,15 +6887,15 @@
         <v>204</v>
       </c>
       <c r="F44" s="12" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="30">
       <c r="A45" s="12" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C45" s="12" t="s">
         <v>95</v>
@@ -6862,15 +6907,15 @@
         <v>205</v>
       </c>
       <c r="F45" s="12" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="30">
       <c r="A46" s="12" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C46" s="12" t="s">
         <v>97</v>
@@ -6882,55 +6927,55 @@
         <v>207</v>
       </c>
       <c r="F46" s="12" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="12" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C47" s="12" t="s">
         <v>98</v>
       </c>
       <c r="D47" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="E47" s="12" t="s">
         <v>208</v>
       </c>
       <c r="F47" s="12" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="12" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="B48" s="12" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C48" s="12" t="s">
         <v>99</v>
       </c>
       <c r="D48" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="E48" s="12" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="F48" s="20" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="12" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="B49" s="12" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C49" s="12" t="s">
         <v>101</v>
@@ -6939,32 +6984,32 @@
         <v>100</v>
       </c>
       <c r="E49" s="12" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="F49" s="12"/>
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="12" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C50" s="12" t="s">
         <v>102</v>
       </c>
       <c r="D50" s="12"/>
       <c r="E50" s="12" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="F50" s="12"/>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="12" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C51" s="12" t="s">
         <v>103</v>
@@ -6973,7 +7018,7 @@
         <v>104</v>
       </c>
       <c r="E51" s="12" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="F51" s="12" t="s">
         <v>104</v>
@@ -6981,50 +7026,50 @@
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="12" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="B52" s="12" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C52" s="12" t="s">
         <v>105</v>
       </c>
       <c r="D52" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="E52" s="12" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="F52" s="12" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53" s="12" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="B53" s="12" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C53" s="12" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="D53" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="E53" s="12" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="F53" s="12" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54" s="12" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="B54" s="12" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C54" s="12" t="s">
         <v>106</v>
@@ -7033,18 +7078,18 @@
         <v>220</v>
       </c>
       <c r="E54" s="12" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="F54" s="12" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="12" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B55" s="12" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C55" s="12" t="s">
         <v>107</v>
@@ -7053,38 +7098,38 @@
         <v>220</v>
       </c>
       <c r="E55" s="12" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="F55" s="12" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="30">
       <c r="A56" s="12" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B56" s="12" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C56" s="12" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="D56" s="12" t="s">
         <v>220</v>
       </c>
       <c r="E56" s="12" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="F56" s="12" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="30">
       <c r="A57" s="12" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="B57" s="12" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C57" s="12" t="s">
         <v>108</v>
@@ -7093,18 +7138,18 @@
         <v>220</v>
       </c>
       <c r="E57" s="12" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="F57" s="12" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="60">
       <c r="A58" s="12" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="B58" s="12" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C58" s="12" t="s">
         <v>109</v>
@@ -7113,7 +7158,7 @@
         <v>110</v>
       </c>
       <c r="E58" s="12" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="F58" s="12" t="s">
         <v>183</v>
@@ -7121,97 +7166,97 @@
     </row>
     <row r="59" spans="1:6">
       <c r="A59" s="12" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="B59" s="12" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C59" s="12" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D59" s="12" t="s">
         <v>111</v>
       </c>
       <c r="F59" s="12" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="30">
       <c r="A60" s="12" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="B60" s="12" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C60" s="12" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="D60" s="12" t="s">
         <v>111</v>
       </c>
       <c r="E60" s="12"/>
       <c r="F60" s="12" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="12" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="B61" s="12" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C61" s="12" t="s">
         <v>112</v>
       </c>
       <c r="D61" s="12"/>
       <c r="E61" s="12" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="F61" s="12" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="12" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="B62" s="12" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C62" s="12" t="s">
         <v>113</v>
       </c>
       <c r="D62" s="12"/>
       <c r="E62" s="12" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="F62" s="12"/>
     </row>
     <row r="63" spans="1:6">
       <c r="A63" s="12" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="B63" s="12" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C63" s="12" t="s">
         <v>114</v>
       </c>
       <c r="D63" s="12" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E63" s="12" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="F63" s="12"/>
     </row>
     <row r="64" spans="1:6">
       <c r="A64" s="12" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="B64" s="12" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C64" s="12" t="s">
         <v>115</v>
@@ -7219,19 +7264,19 @@
       <c r="D64" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="E64" s="45" t="s">
-        <v>357</v>
+      <c r="E64" s="50" t="s">
+        <v>355</v>
       </c>
       <c r="F64" s="12" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65" s="12" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="B65" s="12" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C65" s="12" t="s">
         <v>117</v>
@@ -7239,17 +7284,17 @@
       <c r="D65" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="E65" s="45"/>
+      <c r="E65" s="50"/>
       <c r="F65" s="12" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66" s="12" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="B66" s="12" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C66" s="12" t="s">
         <v>118</v>
@@ -7257,17 +7302,17 @@
       <c r="D66" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="E66" s="45"/>
+      <c r="E66" s="50"/>
       <c r="F66" s="12" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67" s="12" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="B67" s="12" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C67" s="12" t="s">
         <v>119</v>
@@ -7275,35 +7320,35 @@
       <c r="D67" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="E67" s="45"/>
+      <c r="E67" s="50"/>
       <c r="F67" s="12" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="30">
       <c r="A68" s="12" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="B68" s="12" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C68" s="12" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D68" s="12" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E68" s="12" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="F68" s="12"/>
     </row>
     <row r="69" spans="1:6">
       <c r="A69" s="12" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="B69" s="12" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C69" s="12" t="s">
         <v>120</v>
@@ -7311,19 +7356,19 @@
       <c r="D69" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="E69" s="45" t="s">
-        <v>360</v>
+      <c r="E69" s="50" t="s">
+        <v>358</v>
       </c>
       <c r="F69" s="12" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70" s="12" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="B70" s="12" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C70" s="12" t="s">
         <v>121</v>
@@ -7331,17 +7376,17 @@
       <c r="D70" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="E70" s="45"/>
+      <c r="E70" s="50"/>
       <c r="F70" s="12" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71" s="12" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="B71" s="12" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C71" s="12" t="s">
         <v>122</v>
@@ -7349,53 +7394,53 @@
       <c r="D71" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="E71" s="45"/>
+      <c r="E71" s="50"/>
       <c r="F71" s="12" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72" s="12" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="B72" s="12" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C72" s="12" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="D72" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="E72" s="45"/>
+      <c r="E72" s="50"/>
       <c r="F72" s="12" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="30">
       <c r="A73" s="12" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="B73" s="12" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C73" s="12" t="s">
         <v>123</v>
       </c>
       <c r="D73" s="12" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E73" s="12" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="F73" s="12"/>
     </row>
     <row r="74" spans="1:6">
       <c r="A74" s="12" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="B74" s="12" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C74" s="12" t="s">
         <v>124</v>
@@ -7403,19 +7448,19 @@
       <c r="D74" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="E74" s="45" t="s">
-        <v>362</v>
+      <c r="E74" s="50" t="s">
+        <v>360</v>
       </c>
       <c r="F74" s="12" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75" s="12" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="B75" s="12" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C75" s="12" t="s">
         <v>125</v>
@@ -7423,17 +7468,17 @@
       <c r="D75" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="E75" s="45"/>
+      <c r="E75" s="50"/>
       <c r="F75" s="12" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76" s="12" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="B76" s="12" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C76" s="12" t="s">
         <v>126</v>
@@ -7441,17 +7486,17 @@
       <c r="D76" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="E76" s="45"/>
+      <c r="E76" s="50"/>
       <c r="F76" s="12" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77" s="12" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="B77" s="12" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C77" s="12" t="s">
         <v>127</v>
@@ -7459,37 +7504,37 @@
       <c r="D77" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="E77" s="45"/>
+      <c r="E77" s="50"/>
       <c r="F77" s="12" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="30">
       <c r="A78" s="12" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="B78" s="12" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C78" s="12" t="s">
         <v>128</v>
       </c>
       <c r="D78" s="12" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E78" s="12" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="F78" s="12" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79" s="12" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="B79" s="12" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C79" s="12" t="s">
         <v>129</v>
@@ -7497,19 +7542,19 @@
       <c r="D79" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="E79" s="45" t="s">
-        <v>362</v>
+      <c r="E79" s="50" t="s">
+        <v>360</v>
       </c>
       <c r="F79" s="12" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="30" customHeight="1">
       <c r="A80" s="12" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="B80" s="12" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C80" s="12" t="s">
         <v>130</v>
@@ -7517,17 +7562,17 @@
       <c r="D80" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="E80" s="45"/>
+      <c r="E80" s="50"/>
       <c r="F80" s="12" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81" s="12" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="B81" s="12" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C81" s="12" t="s">
         <v>131</v>
@@ -7535,37 +7580,37 @@
       <c r="D81" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="E81" s="45"/>
+      <c r="E81" s="50"/>
       <c r="F81" s="12" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="30">
       <c r="A82" s="12" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="B82" s="12" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C82" s="12" t="s">
         <v>132</v>
       </c>
       <c r="D82" s="12" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E82" s="12" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="F82" s="12" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83" s="12" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="B83" s="12" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C83" s="12" t="s">
         <v>133</v>
@@ -7573,19 +7618,19 @@
       <c r="D83" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="E83" s="47" t="s">
-        <v>370</v>
+      <c r="E83" s="52" t="s">
+        <v>368</v>
       </c>
       <c r="F83" s="12" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84" s="12" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="B84" s="12" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C84" s="12" t="s">
         <v>135</v>
@@ -7593,17 +7638,17 @@
       <c r="D84" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="E84" s="47"/>
+      <c r="E84" s="52"/>
       <c r="F84" s="12" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85" s="12" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="B85" s="12" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C85" s="12" t="s">
         <v>136</v>
@@ -7611,17 +7656,17 @@
       <c r="D85" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="E85" s="47"/>
+      <c r="E85" s="52"/>
       <c r="F85" s="12" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86" s="12" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="B86" s="12" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C86" s="12" t="s">
         <v>137</v>
@@ -7629,17 +7674,17 @@
       <c r="D86" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="E86" s="47"/>
+      <c r="E86" s="52"/>
       <c r="F86" s="12" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87" s="12" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="B87" s="12" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C87" s="12" t="s">
         <v>138</v>
@@ -7647,17 +7692,17 @@
       <c r="D87" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="E87" s="47"/>
+      <c r="E87" s="52"/>
       <c r="F87" s="12" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88" s="12" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="B88" s="12" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C88" s="12" t="s">
         <v>139</v>
@@ -7665,17 +7710,17 @@
       <c r="D88" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="E88" s="47"/>
+      <c r="E88" s="52"/>
       <c r="F88" s="12" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="89" spans="1:6">
       <c r="A89" s="12" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="B89" s="12" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C89" s="12" t="s">
         <v>140</v>
@@ -7683,17 +7728,17 @@
       <c r="D89" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="E89" s="47"/>
+      <c r="E89" s="52"/>
       <c r="F89" s="12" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="90" spans="1:6">
       <c r="A90" s="12" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="B90" s="12" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C90" s="12" t="s">
         <v>141</v>
@@ -7701,17 +7746,17 @@
       <c r="D90" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="E90" s="47"/>
+      <c r="E90" s="52"/>
       <c r="F90" s="12" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="91" spans="1:6">
       <c r="A91" s="12" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="B91" s="12" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C91" s="12" t="s">
         <v>142</v>
@@ -7719,17 +7764,17 @@
       <c r="D91" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="E91" s="47"/>
+      <c r="E91" s="52"/>
       <c r="F91" s="12" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="A92" s="12" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="B92" s="12" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C92" s="12" t="s">
         <v>143</v>
@@ -7737,17 +7782,17 @@
       <c r="D92" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="E92" s="47"/>
+      <c r="E92" s="52"/>
       <c r="F92" s="12" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="93" spans="1:6">
       <c r="A93" s="12" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="B93" s="12" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C93" s="12" t="s">
         <v>144</v>
@@ -7755,17 +7800,17 @@
       <c r="D93" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="E93" s="47"/>
+      <c r="E93" s="52"/>
       <c r="F93" s="12" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="94" spans="1:6" ht="30">
       <c r="A94" s="12" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="B94" s="12" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C94" s="12" t="s">
         <v>145</v>
@@ -7773,17 +7818,17 @@
       <c r="D94" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="E94" s="47"/>
+      <c r="E94" s="52"/>
       <c r="F94" s="12" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="95" spans="1:6">
       <c r="A95" s="12" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="B95" s="12" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C95" s="12" t="s">
         <v>146</v>
@@ -7791,17 +7836,17 @@
       <c r="D95" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="E95" s="47"/>
+      <c r="E95" s="52"/>
       <c r="F95" s="12" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="96" spans="1:6">
       <c r="A96" s="12" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="B96" s="12" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C96" s="12" t="s">
         <v>147</v>
@@ -7809,45 +7854,45 @@
       <c r="D96" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="E96" s="47"/>
+      <c r="E96" s="52"/>
       <c r="F96" s="12" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="97" spans="1:6">
       <c r="A97" s="12" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="B97" s="12" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C97" s="12" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D97" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="E97" s="47"/>
+      <c r="E97" s="52"/>
       <c r="F97" s="12" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="98" spans="1:6">
       <c r="A98" s="12" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="B98" s="12" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C98" s="12" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D98" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="E98" s="47"/>
+      <c r="E98" s="52"/>
       <c r="F98" s="12" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -9338,13 +9383,13 @@
   <sheetData>
     <row r="1" spans="1:7" s="32" customFormat="1">
       <c r="A1" s="31" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B1" s="31" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="C1" s="31" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D1" s="31" t="s">
         <v>19</v>
@@ -9353,27 +9398,27 @@
         <v>20</v>
       </c>
       <c r="F1" s="31" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" customFormat="1" ht="30">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" customFormat="1" ht="45">
       <c r="A2" s="25" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B2" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D2" s="13" t="s">
         <v>50</v>
       </c>
       <c r="E2" s="26" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -9381,16 +9426,16 @@
         <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="C3" s="34" t="s">
         <v>22</v>
       </c>
       <c r="D3" s="34" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E3" s="34" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F3" s="34" t="s">
         <v>213</v>
@@ -9398,19 +9443,19 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="36" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B4" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="C4" s="34" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="D4" s="34" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E4" s="34" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="F4" s="34" t="s">
         <v>213</v>
@@ -9418,330 +9463,330 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="36" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="B5" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="C5" s="34" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="D5" s="34" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="E5" s="34" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="36" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="B6" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="C6" s="34" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="D6" s="34" t="s">
         <v>43</v>
       </c>
       <c r="E6" s="34" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="33" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="B7" s="33" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C7" s="34" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="D7" s="34" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="E7" s="34" t="s">
+        <v>689</v>
+      </c>
+      <c r="F7" s="34" t="s">
         <v>691</v>
-      </c>
-      <c r="F7" s="34" t="s">
-        <v>693</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="32" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="B8" s="33" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C8" s="34" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="D8" s="34" t="s">
+        <v>692</v>
+      </c>
+      <c r="E8" s="34" t="s">
+        <v>693</v>
+      </c>
+      <c r="F8" s="29" t="s">
         <v>694</v>
-      </c>
-      <c r="E8" s="34" t="s">
-        <v>695</v>
-      </c>
-      <c r="F8" s="29" t="s">
-        <v>696</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="32" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="B9" s="33" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C9" s="34" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="D9" s="34" t="s">
+        <v>695</v>
+      </c>
+      <c r="E9" s="34" t="s">
         <v>697</v>
       </c>
-      <c r="E9" s="34" t="s">
-        <v>699</v>
-      </c>
       <c r="F9" s="29" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="32" t="s">
+        <v>698</v>
+      </c>
+      <c r="B10" s="33" t="s">
+        <v>887</v>
+      </c>
+      <c r="C10" s="34" t="s">
+        <v>699</v>
+      </c>
+      <c r="D10" s="34" t="s">
+        <v>702</v>
+      </c>
+      <c r="E10" s="34" t="s">
         <v>700</v>
       </c>
-      <c r="B10" s="33" t="s">
-        <v>889</v>
-      </c>
-      <c r="C10" s="34" t="s">
+      <c r="F10" s="34" t="s">
         <v>701</v>
-      </c>
-      <c r="D10" s="34" t="s">
-        <v>704</v>
-      </c>
-      <c r="E10" s="34" t="s">
-        <v>702</v>
-      </c>
-      <c r="F10" s="34" t="s">
-        <v>703</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="32" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="B11" s="33" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C11" s="34" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="D11" s="29" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="E11" s="34" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="F11" s="29" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="32" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="B12" s="33" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C12" s="34" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="D12" s="34" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="E12" s="34" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="F12" s="41" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="32" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="B13" s="33" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C13" s="34" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="D13" t="s">
         <v>37</v>
       </c>
       <c r="E13" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="F13" s="41" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G13"/>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="32" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="B14" s="33" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C14" s="34" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="D14" t="s">
         <v>37</v>
       </c>
       <c r="E14" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="F14" s="41" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="G14"/>
     </row>
     <row r="15" spans="1:7" ht="81.5" customHeight="1">
       <c r="A15" s="32" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="B15" s="33" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C15" s="34" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="E15" s="34" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="F15" s="41"/>
       <c r="G15"/>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="32" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="B16" s="33" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C16" s="34" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="D16" s="29" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="E16" s="34" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="F16" s="29" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="G16"/>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="32" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="B17" s="33" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C17" s="34" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="D17" s="29" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="E17" s="29" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="F17" s="41" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="G17"/>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="32" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="B18" s="33" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C18" s="29" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="D18" s="29" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="E18" s="29" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="F18"/>
       <c r="G18"/>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="32" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="B19" s="33" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C19" s="29" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="D19" s="29" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E19" s="29" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="F19"/>
       <c r="G19"/>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="32" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="B20" s="33" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C20" s="29" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="D20" s="29" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E20" s="29" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="F20"/>
       <c r="G20"/>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="32" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="B21" s="33" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C21" s="29" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="D21" s="29" t="s">
         <v>104</v>
       </c>
       <c r="E21" s="29" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="F21" s="12" t="s">
         <v>104</v>
@@ -9749,113 +9794,113 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="32" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="B22" s="33" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C22" s="29" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="D22" s="29" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="E22" s="29" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="F22" s="41" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="32" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="B23" s="33" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C23" s="29" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="D23" s="29" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="E23" s="29" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="F23"/>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="32" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="B24" s="33" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C24" s="29" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="D24" s="29" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="E24" s="29" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="F24"/>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="32" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="B25" s="33" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C25" s="29" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="D25" s="29" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="E25" s="29" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="F25" s="41" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="32" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="B26" s="33" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C26" s="29" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="D26" s="29" t="s">
         <v>220</v>
       </c>
       <c r="E26" s="29" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="F26"/>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="32" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="B27" s="33" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C27" s="29" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="D27" s="29" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="E27" s="29" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="F27"/>
     </row>
@@ -75319,7 +75364,7 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="21" style="2" customWidth="1"/>
-    <col min="2" max="2" width="21" style="53" customWidth="1"/>
+    <col min="2" max="2" width="21" style="49" customWidth="1"/>
     <col min="3" max="3" width="48.83203125" style="2" customWidth="1"/>
     <col min="4" max="4" width="28" style="2" customWidth="1"/>
     <col min="5" max="5" width="92.6640625" style="2" customWidth="1"/>
@@ -75329,13 +75374,13 @@
   <sheetData>
     <row r="1" spans="1:6" s="6" customFormat="1">
       <c r="A1" s="8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D1" s="8" t="s">
         <v>19</v>
@@ -75344,44 +75389,44 @@
         <v>20</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="2" spans="1:6" customFormat="1" ht="30">
       <c r="A2" s="25" t="s">
-        <v>388</v>
-      </c>
-      <c r="B2" s="51" t="s">
-        <v>888</v>
+        <v>386</v>
+      </c>
+      <c r="B2" s="47" t="s">
+        <v>886</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D2" s="13" t="s">
         <v>50</v>
       </c>
       <c r="E2" s="26" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="18" customFormat="1">
       <c r="A3" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="51" t="s">
-        <v>888</v>
+      <c r="B3" s="47" t="s">
+        <v>886</v>
       </c>
       <c r="C3" s="12" t="s">
         <v>22</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F3" s="12" t="s">
         <v>213</v>
@@ -75389,19 +75434,19 @@
     </row>
     <row r="4" spans="1:6" s="18" customFormat="1">
       <c r="A4" s="11" t="s">
-        <v>416</v>
-      </c>
-      <c r="B4" s="51" t="s">
-        <v>888</v>
+        <v>414</v>
+      </c>
+      <c r="B4" s="47" t="s">
+        <v>886</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>51</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="F4" s="12" t="s">
         <v>213</v>
@@ -75409,19 +75454,19 @@
     </row>
     <row r="5" spans="1:6" s="18" customFormat="1">
       <c r="A5" s="11" t="s">
-        <v>627</v>
-      </c>
-      <c r="B5" s="51" t="s">
-        <v>888</v>
+        <v>625</v>
+      </c>
+      <c r="B5" s="47" t="s">
+        <v>886</v>
       </c>
       <c r="C5" s="12" t="s">
         <v>64</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="F5" s="12" t="s">
         <v>213</v>
@@ -75429,52 +75474,52 @@
     </row>
     <row r="6" spans="1:6" s="18" customFormat="1">
       <c r="A6" s="11" t="s">
-        <v>826</v>
-      </c>
-      <c r="B6" s="51" t="s">
-        <v>888</v>
+        <v>824</v>
+      </c>
+      <c r="B6" s="47" t="s">
+        <v>886</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>149</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="F6" s="12"/>
     </row>
     <row r="7" spans="1:6" s="18" customFormat="1" ht="30">
       <c r="A7" s="11" t="s">
-        <v>828</v>
-      </c>
-      <c r="B7" s="51" t="s">
-        <v>888</v>
+        <v>826</v>
+      </c>
+      <c r="B7" s="47" t="s">
+        <v>886</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="F7" s="12"/>
     </row>
     <row r="8" spans="1:6" s="18" customFormat="1">
       <c r="A8" s="12" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C8" s="12" t="s">
         <v>151</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="E8" s="19" t="s">
         <v>210</v>
@@ -75485,16 +75530,16 @@
     </row>
     <row r="9" spans="1:6" s="18" customFormat="1" ht="30">
       <c r="A9" s="11" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="C9" s="12" t="s">
         <v>150</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="E9" s="19" t="s">
         <v>209</v>
@@ -75505,16 +75550,16 @@
     </row>
     <row r="10" spans="1:6" s="18" customFormat="1">
       <c r="A10" s="11" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="C10" s="12" t="s">
         <v>152</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="E10" s="19" t="s">
         <v>211</v>
@@ -75523,77 +75568,77 @@
     </row>
     <row r="11" spans="1:6" s="18" customFormat="1">
       <c r="A11" s="11" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="C11" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="D11" s="12" t="s">
         <v>255</v>
       </c>
-      <c r="D11" s="12" t="s">
-        <v>256</v>
-      </c>
       <c r="E11" s="12" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="12" spans="1:6" s="18" customFormat="1">
       <c r="A12" s="11" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="18" customFormat="1">
       <c r="A13" s="11" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="F13" s="12"/>
     </row>
     <row r="14" spans="1:6" s="18" customFormat="1">
       <c r="A14" s="40" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C14" s="12" t="s">
         <v>153</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F14" s="12" t="s">
         <v>220</v>
@@ -75601,10 +75646,10 @@
     </row>
     <row r="15" spans="1:6" s="18" customFormat="1">
       <c r="A15" s="12" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C15" s="12" t="s">
         <v>154</v>
@@ -75613,7 +75658,7 @@
         <v>53</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="F15" s="12" t="s">
         <v>53</v>
@@ -75621,10 +75666,10 @@
     </row>
     <row r="16" spans="1:6" s="18" customFormat="1">
       <c r="A16" s="12" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C16" s="12" t="s">
         <v>155</v>
@@ -75633,16 +75678,16 @@
         <v>219</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F16" s="12"/>
     </row>
     <row r="17" spans="1:6" s="18" customFormat="1">
       <c r="A17" s="12" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C17" s="12" t="s">
         <v>156</v>
@@ -75651,74 +75696,74 @@
         <v>37</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="18" spans="1:6" s="18" customFormat="1">
       <c r="A18" s="12" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C18" s="12" t="s">
         <v>54</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="F18" s="12"/>
     </row>
     <row r="19" spans="1:6" s="18" customFormat="1">
       <c r="A19" s="2" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="F19" s="12"/>
     </row>
     <row r="20" spans="1:6" s="18" customFormat="1">
       <c r="A20" s="12" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D20" s="12" t="s">
         <v>37</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="F20" s="12" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="21" spans="1:6" s="18" customFormat="1">
       <c r="A21" s="12" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C21" s="12" t="s">
         <v>157</v>
@@ -75727,18 +75772,18 @@
         <v>37</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="F21" s="12" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="22" spans="1:6" s="18" customFormat="1">
       <c r="A22" s="12" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C22" s="12" t="s">
         <v>158</v>
@@ -75747,38 +75792,38 @@
         <v>37</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="F22" s="12" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="23" spans="1:6" s="18" customFormat="1" ht="30">
       <c r="A23" s="12" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D23" s="12" t="s">
         <v>37</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="F23" s="12" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="24" spans="1:6" s="18" customFormat="1" ht="28">
       <c r="A24" s="12" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C24" s="12" t="s">
         <v>159</v>
@@ -75790,15 +75835,15 @@
         <v>212</v>
       </c>
       <c r="F24" s="12" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="25" spans="1:6" s="18" customFormat="1" ht="30">
       <c r="A25" s="12" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C25" s="12" t="s">
         <v>160</v>
@@ -75815,86 +75860,86 @@
     </row>
     <row r="26" spans="1:6" s="18" customFormat="1">
       <c r="A26" s="12" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C26" s="12" t="s">
         <v>161</v>
       </c>
       <c r="D26" s="39" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="E26" s="19" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="F26" s="12" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="27" spans="1:6" s="18" customFormat="1">
       <c r="A27" s="12" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C27" s="12" t="s">
         <v>162</v>
       </c>
       <c r="D27" s="39" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="E27" s="19" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="F27" s="12" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="28" spans="1:6" s="18" customFormat="1">
       <c r="A28" s="12" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C28" s="12" t="s">
         <v>101</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E28" s="19" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="F28" s="12"/>
     </row>
     <row r="29" spans="1:6" s="18" customFormat="1">
       <c r="A29" s="12" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C29" s="12" t="s">
         <v>102</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E29" s="19" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="F29" s="12"/>
     </row>
     <row r="30" spans="1:6" s="18" customFormat="1">
       <c r="A30" s="12" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C30" s="12" t="s">
         <v>103</v>
@@ -75903,7 +75948,7 @@
         <v>104</v>
       </c>
       <c r="E30" s="19" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="F30" s="12" t="s">
         <v>104</v>
@@ -75911,68 +75956,68 @@
     </row>
     <row r="31" spans="1:6" s="18" customFormat="1">
       <c r="A31" s="12" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C31" s="12" t="s">
         <v>163</v>
       </c>
       <c r="D31" s="39" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="E31" s="19" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="F31" s="12" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="32" spans="1:6" s="18" customFormat="1">
       <c r="A32" s="12" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="D32" s="39" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="E32" s="19" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="F32" s="12" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="33" spans="1:6" s="18" customFormat="1" ht="16.25" customHeight="1">
       <c r="A33" s="12" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C33" s="12" t="s">
         <v>164</v>
       </c>
       <c r="D33" s="39" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="E33" s="19" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="F33" s="12"/>
     </row>
     <row r="34" spans="1:6" s="18" customFormat="1">
       <c r="A34" s="12" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C34" s="12" t="s">
         <v>165</v>
@@ -75981,36 +76026,36 @@
         <v>220</v>
       </c>
       <c r="E34" s="19" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="F34" s="12" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="35" spans="1:6" s="18" customFormat="1">
       <c r="A35" s="12" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="D35" s="12" t="s">
         <v>220</v>
       </c>
       <c r="E35" s="19" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="F35" s="12"/>
     </row>
     <row r="36" spans="1:6" s="18" customFormat="1">
       <c r="A36" s="12" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C36" s="12" t="s">
         <v>166</v>
@@ -76019,348 +76064,348 @@
         <v>220</v>
       </c>
       <c r="E36" s="19" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="F36" s="12"/>
     </row>
     <row r="37" spans="1:6" s="18" customFormat="1">
       <c r="A37" s="12" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C37" s="12" t="s">
         <v>115</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>844</v>
-      </c>
-      <c r="E37" s="45" t="s">
-        <v>357</v>
+        <v>842</v>
+      </c>
+      <c r="E37" s="50" t="s">
+        <v>355</v>
       </c>
       <c r="F37" s="12" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="38" spans="1:6" s="18" customFormat="1" ht="16" customHeight="1">
       <c r="A38" s="12" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C38" s="12" t="s">
         <v>117</v>
       </c>
       <c r="D38" s="12" t="s">
-        <v>844</v>
-      </c>
-      <c r="E38" s="45"/>
+        <v>842</v>
+      </c>
+      <c r="E38" s="50"/>
       <c r="F38" s="12" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="39" spans="1:6" s="18" customFormat="1">
       <c r="A39" s="12" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C39" s="12" t="s">
         <v>118</v>
       </c>
       <c r="D39" s="12" t="s">
-        <v>844</v>
-      </c>
-      <c r="E39" s="45"/>
+        <v>842</v>
+      </c>
+      <c r="E39" s="50"/>
       <c r="F39" s="12" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="40" spans="1:6" s="18" customFormat="1">
       <c r="A40" s="12" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C40" s="12" t="s">
         <v>119</v>
       </c>
       <c r="D40" s="12" t="s">
-        <v>844</v>
-      </c>
-      <c r="E40" s="45"/>
+        <v>842</v>
+      </c>
+      <c r="E40" s="50"/>
       <c r="F40" s="12" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="41" spans="1:6" s="18" customFormat="1" ht="39" customHeight="1">
       <c r="A41" s="12" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D41" s="12" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E41" s="12" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="F41" s="12"/>
     </row>
     <row r="42" spans="1:6" s="18" customFormat="1">
       <c r="A42" s="12" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C42" s="12" t="s">
         <v>120</v>
       </c>
       <c r="D42" s="12" t="s">
-        <v>844</v>
-      </c>
-      <c r="E42" s="45" t="s">
-        <v>360</v>
+        <v>842</v>
+      </c>
+      <c r="E42" s="50" t="s">
+        <v>358</v>
       </c>
       <c r="F42" s="12" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="43" spans="1:6" s="18" customFormat="1" ht="16" customHeight="1">
       <c r="A43" s="12" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C43" s="12" t="s">
         <v>121</v>
       </c>
       <c r="D43" s="12" t="s">
-        <v>844</v>
-      </c>
-      <c r="E43" s="45"/>
+        <v>842</v>
+      </c>
+      <c r="E43" s="50"/>
       <c r="F43" s="12" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="44" spans="1:6" s="18" customFormat="1">
       <c r="A44" s="12" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C44" s="12" t="s">
         <v>122</v>
       </c>
       <c r="D44" s="12" t="s">
-        <v>844</v>
-      </c>
-      <c r="E44" s="45"/>
+        <v>842</v>
+      </c>
+      <c r="E44" s="50"/>
       <c r="F44" s="12" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="45" spans="1:6" s="18" customFormat="1">
       <c r="A45" s="12" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="D45" s="12" t="s">
-        <v>844</v>
-      </c>
-      <c r="E45" s="48"/>
+        <v>842</v>
+      </c>
+      <c r="E45" s="53"/>
       <c r="F45" s="12" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="46" spans="1:6" s="18" customFormat="1" ht="30">
       <c r="A46" s="12" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C46" s="12" t="s">
         <v>123</v>
       </c>
       <c r="D46" s="12" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E46" s="12" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="F46" s="12"/>
     </row>
     <row r="47" spans="1:6" s="18" customFormat="1">
       <c r="A47" s="12" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C47" s="12" t="s">
         <v>124</v>
       </c>
       <c r="D47" s="12" t="s">
-        <v>844</v>
-      </c>
-      <c r="E47" s="45" t="s">
-        <v>362</v>
+        <v>842</v>
+      </c>
+      <c r="E47" s="50" t="s">
+        <v>360</v>
       </c>
       <c r="F47" s="12" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="48" spans="1:6" s="18" customFormat="1" ht="16" customHeight="1">
       <c r="A48" s="12" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="B48" s="12" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C48" s="12" t="s">
         <v>125</v>
       </c>
       <c r="D48" s="12" t="s">
-        <v>844</v>
-      </c>
-      <c r="E48" s="45"/>
+        <v>842</v>
+      </c>
+      <c r="E48" s="50"/>
       <c r="F48" s="12" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="49" spans="1:6" s="18" customFormat="1">
       <c r="A49" s="12" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="B49" s="12" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C49" s="12" t="s">
         <v>126</v>
       </c>
       <c r="D49" s="12" t="s">
-        <v>844</v>
-      </c>
-      <c r="E49" s="45"/>
+        <v>842</v>
+      </c>
+      <c r="E49" s="50"/>
       <c r="F49" s="12" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="50" spans="1:6" s="18" customFormat="1">
       <c r="A50" s="12" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C50" s="12" t="s">
         <v>127</v>
       </c>
       <c r="D50" s="12" t="s">
-        <v>844</v>
-      </c>
-      <c r="E50" s="45"/>
+        <v>842</v>
+      </c>
+      <c r="E50" s="50"/>
       <c r="F50" s="12" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="51" spans="1:6" s="18" customFormat="1" ht="30">
       <c r="A51" s="12" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C51" s="12" t="s">
         <v>128</v>
       </c>
       <c r="D51" s="12" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E51" s="12" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="F51" s="12"/>
     </row>
     <row r="52" spans="1:6" s="18" customFormat="1">
       <c r="A52" s="12" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="B52" s="12" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C52" s="12" t="s">
         <v>129</v>
       </c>
       <c r="D52" s="12" t="s">
-        <v>844</v>
-      </c>
-      <c r="E52" s="45" t="s">
-        <v>362</v>
+        <v>842</v>
+      </c>
+      <c r="E52" s="50" t="s">
+        <v>360</v>
       </c>
       <c r="F52" s="12" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="53" spans="1:6" s="18" customFormat="1" ht="16" customHeight="1">
       <c r="A53" s="12" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="B53" s="12" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C53" s="12" t="s">
         <v>130</v>
       </c>
       <c r="D53" s="12" t="s">
-        <v>844</v>
-      </c>
-      <c r="E53" s="45"/>
+        <v>842</v>
+      </c>
+      <c r="E53" s="50"/>
       <c r="F53" s="12" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="54" spans="1:6" s="18" customFormat="1">
       <c r="A54" s="12" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="B54" s="12" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C54" s="12" t="s">
         <v>131</v>
       </c>
       <c r="D54" s="12" t="s">
-        <v>844</v>
-      </c>
-      <c r="E54" s="45"/>
+        <v>842</v>
+      </c>
+      <c r="E54" s="50"/>
       <c r="F54" s="12" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="55" spans="1:6" s="18" customFormat="1" ht="16" customHeight="1">
       <c r="A55" s="12" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="B55" s="12" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C55" s="12" t="s">
         <v>133</v>
@@ -76368,19 +76413,19 @@
       <c r="D55" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="E55" s="47" t="s">
-        <v>370</v>
+      <c r="E55" s="52" t="s">
+        <v>368</v>
       </c>
       <c r="F55" s="12" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="56" spans="1:6" s="18" customFormat="1">
       <c r="A56" s="12" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="B56" s="12" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C56" s="12" t="s">
         <v>135</v>
@@ -76388,17 +76433,17 @@
       <c r="D56" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="E56" s="47"/>
+      <c r="E56" s="52"/>
       <c r="F56" s="12" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="57" spans="1:6" s="18" customFormat="1" ht="16" customHeight="1">
       <c r="A57" s="12" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="B57" s="12" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C57" s="12" t="s">
         <v>136</v>
@@ -76406,17 +76451,17 @@
       <c r="D57" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="E57" s="47"/>
+      <c r="E57" s="52"/>
       <c r="F57" s="12" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="58" spans="1:6" s="18" customFormat="1">
       <c r="A58" s="12" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="B58" s="12" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C58" s="12" t="s">
         <v>167</v>
@@ -76424,17 +76469,17 @@
       <c r="D58" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="E58" s="47"/>
+      <c r="E58" s="52"/>
       <c r="F58" s="12" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="59" spans="1:6" s="18" customFormat="1">
       <c r="A59" s="12" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="B59" s="12" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C59" s="12" t="s">
         <v>138</v>
@@ -76442,17 +76487,17 @@
       <c r="D59" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="E59" s="47"/>
+      <c r="E59" s="52"/>
       <c r="F59" s="12" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="60" spans="1:6" s="18" customFormat="1">
       <c r="A60" s="12" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="B60" s="12" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C60" s="12" t="s">
         <v>139</v>
@@ -76460,17 +76505,17 @@
       <c r="D60" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="E60" s="47"/>
+      <c r="E60" s="52"/>
       <c r="F60" s="12" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="61" spans="1:6" s="18" customFormat="1">
       <c r="A61" s="12" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="B61" s="12" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C61" s="12" t="s">
         <v>140</v>
@@ -76478,17 +76523,17 @@
       <c r="D61" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="E61" s="47"/>
+      <c r="E61" s="52"/>
       <c r="F61" s="12" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="62" spans="1:6" s="18" customFormat="1">
       <c r="A62" s="12" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="B62" s="12" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C62" s="12" t="s">
         <v>141</v>
@@ -76496,17 +76541,17 @@
       <c r="D62" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="E62" s="47"/>
+      <c r="E62" s="52"/>
       <c r="F62" s="12" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="63" spans="1:6" s="18" customFormat="1">
       <c r="A63" s="12" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="B63" s="12" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C63" s="12" t="s">
         <v>142</v>
@@ -76514,17 +76559,17 @@
       <c r="D63" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="E63" s="47"/>
+      <c r="E63" s="52"/>
       <c r="F63" s="12" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="64" spans="1:6" s="18" customFormat="1">
       <c r="A64" s="12" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="B64" s="12" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C64" s="12" t="s">
         <v>143</v>
@@ -76532,17 +76577,17 @@
       <c r="D64" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="E64" s="47"/>
+      <c r="E64" s="52"/>
       <c r="F64" s="12" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="65" spans="1:6" s="18" customFormat="1">
       <c r="A65" s="12" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="B65" s="12" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C65" s="12" t="s">
         <v>144</v>
@@ -76550,17 +76595,17 @@
       <c r="D65" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="E65" s="47"/>
+      <c r="E65" s="52"/>
       <c r="F65" s="12" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="66" spans="1:6" s="18" customFormat="1">
       <c r="A66" s="12" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="B66" s="12" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C66" s="12" t="s">
         <v>145</v>
@@ -76568,17 +76613,17 @@
       <c r="D66" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="E66" s="47"/>
+      <c r="E66" s="52"/>
       <c r="F66" s="12" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="67" spans="1:6" s="18" customFormat="1">
       <c r="A67" s="12" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="B67" s="12" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C67" s="12" t="s">
         <v>146</v>
@@ -76586,17 +76631,17 @@
       <c r="D67" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="E67" s="47"/>
+      <c r="E67" s="52"/>
       <c r="F67" s="12" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="68" spans="1:6" s="18" customFormat="1">
       <c r="A68" s="12" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="B68" s="12" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C68" s="12" t="s">
         <v>147</v>
@@ -76604,861 +76649,861 @@
       <c r="D68" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="E68" s="47"/>
+      <c r="E68" s="52"/>
       <c r="F68" s="12" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="69" spans="1:6" s="18" customFormat="1">
       <c r="A69" s="12" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="B69" s="12" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C69" s="12" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D69" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="E69" s="47"/>
+      <c r="E69" s="52"/>
       <c r="F69" s="12" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="70" spans="1:6" s="3" customFormat="1">
-      <c r="B70" s="52"/>
+      <c r="B70" s="48"/>
       <c r="E70" s="12"/>
     </row>
     <row r="71" spans="1:6" s="3" customFormat="1">
-      <c r="B71" s="52"/>
+      <c r="B71" s="48"/>
       <c r="E71" s="12"/>
     </row>
     <row r="72" spans="1:6" s="3" customFormat="1">
-      <c r="B72" s="52"/>
+      <c r="B72" s="48"/>
     </row>
     <row r="73" spans="1:6" s="3" customFormat="1">
-      <c r="B73" s="52"/>
+      <c r="B73" s="48"/>
     </row>
     <row r="74" spans="1:6" s="3" customFormat="1">
-      <c r="B74" s="52"/>
+      <c r="B74" s="48"/>
     </row>
     <row r="75" spans="1:6" s="3" customFormat="1">
-      <c r="B75" s="52"/>
+      <c r="B75" s="48"/>
     </row>
     <row r="76" spans="1:6" s="3" customFormat="1">
-      <c r="B76" s="52"/>
+      <c r="B76" s="48"/>
     </row>
     <row r="77" spans="1:6" s="3" customFormat="1">
-      <c r="B77" s="52"/>
+      <c r="B77" s="48"/>
     </row>
     <row r="78" spans="1:6" s="3" customFormat="1">
-      <c r="B78" s="52"/>
+      <c r="B78" s="48"/>
     </row>
     <row r="79" spans="1:6" s="3" customFormat="1">
-      <c r="B79" s="52"/>
+      <c r="B79" s="48"/>
     </row>
     <row r="80" spans="1:6" s="3" customFormat="1">
-      <c r="B80" s="52"/>
+      <c r="B80" s="48"/>
     </row>
     <row r="81" spans="2:2" s="3" customFormat="1">
-      <c r="B81" s="52"/>
+      <c r="B81" s="48"/>
     </row>
     <row r="82" spans="2:2" s="3" customFormat="1">
-      <c r="B82" s="52"/>
+      <c r="B82" s="48"/>
     </row>
     <row r="83" spans="2:2" s="3" customFormat="1">
-      <c r="B83" s="52"/>
+      <c r="B83" s="48"/>
     </row>
     <row r="84" spans="2:2" s="3" customFormat="1">
-      <c r="B84" s="52"/>
+      <c r="B84" s="48"/>
     </row>
     <row r="85" spans="2:2" s="3" customFormat="1">
-      <c r="B85" s="52"/>
+      <c r="B85" s="48"/>
     </row>
     <row r="86" spans="2:2" s="3" customFormat="1">
-      <c r="B86" s="52"/>
+      <c r="B86" s="48"/>
     </row>
     <row r="87" spans="2:2" s="3" customFormat="1">
-      <c r="B87" s="52"/>
+      <c r="B87" s="48"/>
     </row>
     <row r="88" spans="2:2" s="3" customFormat="1">
-      <c r="B88" s="52"/>
+      <c r="B88" s="48"/>
     </row>
     <row r="89" spans="2:2" s="3" customFormat="1">
-      <c r="B89" s="52"/>
+      <c r="B89" s="48"/>
     </row>
     <row r="90" spans="2:2" s="3" customFormat="1">
-      <c r="B90" s="52"/>
+      <c r="B90" s="48"/>
     </row>
     <row r="91" spans="2:2" s="3" customFormat="1">
-      <c r="B91" s="52"/>
+      <c r="B91" s="48"/>
     </row>
     <row r="92" spans="2:2" s="3" customFormat="1">
-      <c r="B92" s="52"/>
+      <c r="B92" s="48"/>
     </row>
     <row r="93" spans="2:2" s="3" customFormat="1">
-      <c r="B93" s="52"/>
+      <c r="B93" s="48"/>
     </row>
     <row r="94" spans="2:2" s="3" customFormat="1">
-      <c r="B94" s="52"/>
+      <c r="B94" s="48"/>
     </row>
     <row r="95" spans="2:2" s="3" customFormat="1">
-      <c r="B95" s="52"/>
+      <c r="B95" s="48"/>
     </row>
     <row r="96" spans="2:2" s="3" customFormat="1">
-      <c r="B96" s="52"/>
+      <c r="B96" s="48"/>
     </row>
     <row r="97" spans="2:2" s="3" customFormat="1">
-      <c r="B97" s="52"/>
+      <c r="B97" s="48"/>
     </row>
     <row r="98" spans="2:2" s="3" customFormat="1">
-      <c r="B98" s="52"/>
+      <c r="B98" s="48"/>
     </row>
     <row r="99" spans="2:2" s="3" customFormat="1">
-      <c r="B99" s="52"/>
+      <c r="B99" s="48"/>
     </row>
     <row r="100" spans="2:2" s="3" customFormat="1">
-      <c r="B100" s="52"/>
+      <c r="B100" s="48"/>
     </row>
     <row r="101" spans="2:2" s="3" customFormat="1">
-      <c r="B101" s="52"/>
+      <c r="B101" s="48"/>
     </row>
     <row r="102" spans="2:2" s="3" customFormat="1">
-      <c r="B102" s="52"/>
+      <c r="B102" s="48"/>
     </row>
     <row r="103" spans="2:2" s="3" customFormat="1">
-      <c r="B103" s="52"/>
+      <c r="B103" s="48"/>
     </row>
     <row r="104" spans="2:2" s="3" customFormat="1">
-      <c r="B104" s="52"/>
+      <c r="B104" s="48"/>
     </row>
     <row r="105" spans="2:2" s="3" customFormat="1">
-      <c r="B105" s="52"/>
+      <c r="B105" s="48"/>
     </row>
     <row r="106" spans="2:2" s="3" customFormat="1">
-      <c r="B106" s="52"/>
+      <c r="B106" s="48"/>
     </row>
     <row r="107" spans="2:2" s="3" customFormat="1">
-      <c r="B107" s="52"/>
+      <c r="B107" s="48"/>
     </row>
     <row r="108" spans="2:2" s="3" customFormat="1">
-      <c r="B108" s="52"/>
+      <c r="B108" s="48"/>
     </row>
     <row r="109" spans="2:2" s="3" customFormat="1">
-      <c r="B109" s="52"/>
+      <c r="B109" s="48"/>
     </row>
     <row r="110" spans="2:2" s="3" customFormat="1">
-      <c r="B110" s="52"/>
+      <c r="B110" s="48"/>
     </row>
     <row r="111" spans="2:2" s="3" customFormat="1">
-      <c r="B111" s="52"/>
+      <c r="B111" s="48"/>
     </row>
     <row r="112" spans="2:2" s="3" customFormat="1">
-      <c r="B112" s="52"/>
+      <c r="B112" s="48"/>
     </row>
     <row r="113" spans="2:2" s="3" customFormat="1">
-      <c r="B113" s="52"/>
+      <c r="B113" s="48"/>
     </row>
     <row r="114" spans="2:2" s="3" customFormat="1">
-      <c r="B114" s="52"/>
+      <c r="B114" s="48"/>
     </row>
     <row r="115" spans="2:2" s="3" customFormat="1">
-      <c r="B115" s="52"/>
+      <c r="B115" s="48"/>
     </row>
     <row r="116" spans="2:2" s="3" customFormat="1">
-      <c r="B116" s="52"/>
+      <c r="B116" s="48"/>
     </row>
     <row r="117" spans="2:2" s="3" customFormat="1">
-      <c r="B117" s="52"/>
+      <c r="B117" s="48"/>
     </row>
     <row r="118" spans="2:2" s="3" customFormat="1">
-      <c r="B118" s="52"/>
+      <c r="B118" s="48"/>
     </row>
     <row r="119" spans="2:2" s="3" customFormat="1">
-      <c r="B119" s="52"/>
+      <c r="B119" s="48"/>
     </row>
     <row r="120" spans="2:2" s="3" customFormat="1">
-      <c r="B120" s="52"/>
+      <c r="B120" s="48"/>
     </row>
     <row r="121" spans="2:2" s="3" customFormat="1">
-      <c r="B121" s="52"/>
+      <c r="B121" s="48"/>
     </row>
     <row r="122" spans="2:2" s="3" customFormat="1">
-      <c r="B122" s="52"/>
+      <c r="B122" s="48"/>
     </row>
     <row r="123" spans="2:2" s="3" customFormat="1">
-      <c r="B123" s="52"/>
+      <c r="B123" s="48"/>
     </row>
     <row r="124" spans="2:2" s="3" customFormat="1">
-      <c r="B124" s="52"/>
+      <c r="B124" s="48"/>
     </row>
     <row r="125" spans="2:2" s="3" customFormat="1">
-      <c r="B125" s="52"/>
+      <c r="B125" s="48"/>
     </row>
     <row r="126" spans="2:2" s="3" customFormat="1">
-      <c r="B126" s="52"/>
+      <c r="B126" s="48"/>
     </row>
     <row r="127" spans="2:2" s="3" customFormat="1">
-      <c r="B127" s="52"/>
+      <c r="B127" s="48"/>
     </row>
     <row r="128" spans="2:2" s="3" customFormat="1">
-      <c r="B128" s="52"/>
+      <c r="B128" s="48"/>
     </row>
     <row r="129" spans="2:2" s="3" customFormat="1">
-      <c r="B129" s="52"/>
+      <c r="B129" s="48"/>
     </row>
     <row r="130" spans="2:2" s="3" customFormat="1">
-      <c r="B130" s="52"/>
+      <c r="B130" s="48"/>
     </row>
     <row r="131" spans="2:2" s="3" customFormat="1">
-      <c r="B131" s="52"/>
+      <c r="B131" s="48"/>
     </row>
     <row r="132" spans="2:2" s="3" customFormat="1">
-      <c r="B132" s="52"/>
+      <c r="B132" s="48"/>
     </row>
     <row r="133" spans="2:2" s="3" customFormat="1">
-      <c r="B133" s="52"/>
+      <c r="B133" s="48"/>
     </row>
     <row r="134" spans="2:2" s="3" customFormat="1">
-      <c r="B134" s="52"/>
+      <c r="B134" s="48"/>
     </row>
     <row r="135" spans="2:2" s="3" customFormat="1">
-      <c r="B135" s="52"/>
+      <c r="B135" s="48"/>
     </row>
     <row r="136" spans="2:2" s="3" customFormat="1">
-      <c r="B136" s="52"/>
+      <c r="B136" s="48"/>
     </row>
     <row r="137" spans="2:2" s="3" customFormat="1">
-      <c r="B137" s="52"/>
+      <c r="B137" s="48"/>
     </row>
     <row r="138" spans="2:2" s="3" customFormat="1">
-      <c r="B138" s="52"/>
+      <c r="B138" s="48"/>
     </row>
     <row r="139" spans="2:2" s="3" customFormat="1">
-      <c r="B139" s="52"/>
+      <c r="B139" s="48"/>
     </row>
     <row r="140" spans="2:2" s="3" customFormat="1">
-      <c r="B140" s="52"/>
+      <c r="B140" s="48"/>
     </row>
     <row r="141" spans="2:2" s="3" customFormat="1">
-      <c r="B141" s="52"/>
+      <c r="B141" s="48"/>
     </row>
     <row r="142" spans="2:2" s="3" customFormat="1">
-      <c r="B142" s="52"/>
+      <c r="B142" s="48"/>
     </row>
     <row r="143" spans="2:2" s="3" customFormat="1">
-      <c r="B143" s="52"/>
+      <c r="B143" s="48"/>
     </row>
     <row r="144" spans="2:2" s="3" customFormat="1">
-      <c r="B144" s="52"/>
+      <c r="B144" s="48"/>
     </row>
     <row r="145" spans="2:2" s="3" customFormat="1">
-      <c r="B145" s="52"/>
+      <c r="B145" s="48"/>
     </row>
     <row r="146" spans="2:2" s="3" customFormat="1">
-      <c r="B146" s="52"/>
+      <c r="B146" s="48"/>
     </row>
     <row r="147" spans="2:2" s="3" customFormat="1">
-      <c r="B147" s="52"/>
+      <c r="B147" s="48"/>
     </row>
     <row r="148" spans="2:2" s="3" customFormat="1">
-      <c r="B148" s="52"/>
+      <c r="B148" s="48"/>
     </row>
     <row r="149" spans="2:2" s="3" customFormat="1">
-      <c r="B149" s="52"/>
+      <c r="B149" s="48"/>
     </row>
     <row r="150" spans="2:2" s="3" customFormat="1">
-      <c r="B150" s="52"/>
+      <c r="B150" s="48"/>
     </row>
     <row r="151" spans="2:2" s="3" customFormat="1">
-      <c r="B151" s="52"/>
+      <c r="B151" s="48"/>
     </row>
     <row r="152" spans="2:2" s="3" customFormat="1">
-      <c r="B152" s="52"/>
+      <c r="B152" s="48"/>
     </row>
     <row r="153" spans="2:2" s="3" customFormat="1">
-      <c r="B153" s="52"/>
+      <c r="B153" s="48"/>
     </row>
     <row r="154" spans="2:2" s="3" customFormat="1">
-      <c r="B154" s="52"/>
+      <c r="B154" s="48"/>
     </row>
     <row r="155" spans="2:2" s="3" customFormat="1">
-      <c r="B155" s="52"/>
+      <c r="B155" s="48"/>
     </row>
     <row r="156" spans="2:2" s="3" customFormat="1">
-      <c r="B156" s="52"/>
+      <c r="B156" s="48"/>
     </row>
     <row r="157" spans="2:2" s="3" customFormat="1">
-      <c r="B157" s="52"/>
+      <c r="B157" s="48"/>
     </row>
     <row r="158" spans="2:2" s="3" customFormat="1">
-      <c r="B158" s="52"/>
+      <c r="B158" s="48"/>
     </row>
     <row r="159" spans="2:2" s="3" customFormat="1">
-      <c r="B159" s="52"/>
+      <c r="B159" s="48"/>
     </row>
     <row r="160" spans="2:2" s="3" customFormat="1">
-      <c r="B160" s="52"/>
+      <c r="B160" s="48"/>
     </row>
     <row r="161" spans="2:2" s="3" customFormat="1">
-      <c r="B161" s="52"/>
+      <c r="B161" s="48"/>
     </row>
     <row r="162" spans="2:2" s="3" customFormat="1">
-      <c r="B162" s="52"/>
+      <c r="B162" s="48"/>
     </row>
     <row r="163" spans="2:2" s="3" customFormat="1">
-      <c r="B163" s="52"/>
+      <c r="B163" s="48"/>
     </row>
     <row r="164" spans="2:2" s="3" customFormat="1">
-      <c r="B164" s="52"/>
+      <c r="B164" s="48"/>
     </row>
     <row r="165" spans="2:2" s="3" customFormat="1">
-      <c r="B165" s="52"/>
+      <c r="B165" s="48"/>
     </row>
     <row r="166" spans="2:2" s="3" customFormat="1">
-      <c r="B166" s="52"/>
+      <c r="B166" s="48"/>
     </row>
     <row r="167" spans="2:2" s="3" customFormat="1">
-      <c r="B167" s="52"/>
+      <c r="B167" s="48"/>
     </row>
     <row r="168" spans="2:2" s="3" customFormat="1">
-      <c r="B168" s="52"/>
+      <c r="B168" s="48"/>
     </row>
     <row r="169" spans="2:2" s="3" customFormat="1">
-      <c r="B169" s="52"/>
+      <c r="B169" s="48"/>
     </row>
     <row r="170" spans="2:2" s="3" customFormat="1">
-      <c r="B170" s="52"/>
+      <c r="B170" s="48"/>
     </row>
     <row r="171" spans="2:2" s="3" customFormat="1">
-      <c r="B171" s="52"/>
+      <c r="B171" s="48"/>
     </row>
     <row r="172" spans="2:2" s="3" customFormat="1">
-      <c r="B172" s="52"/>
+      <c r="B172" s="48"/>
     </row>
     <row r="173" spans="2:2" s="3" customFormat="1">
-      <c r="B173" s="52"/>
+      <c r="B173" s="48"/>
     </row>
     <row r="174" spans="2:2" s="3" customFormat="1">
-      <c r="B174" s="52"/>
+      <c r="B174" s="48"/>
     </row>
     <row r="175" spans="2:2" s="3" customFormat="1">
-      <c r="B175" s="52"/>
+      <c r="B175" s="48"/>
     </row>
     <row r="176" spans="2:2" s="3" customFormat="1">
-      <c r="B176" s="52"/>
+      <c r="B176" s="48"/>
     </row>
     <row r="177" spans="2:2" s="3" customFormat="1">
-      <c r="B177" s="52"/>
+      <c r="B177" s="48"/>
     </row>
     <row r="178" spans="2:2" s="3" customFormat="1">
-      <c r="B178" s="52"/>
+      <c r="B178" s="48"/>
     </row>
     <row r="179" spans="2:2" s="3" customFormat="1">
-      <c r="B179" s="52"/>
+      <c r="B179" s="48"/>
     </row>
     <row r="180" spans="2:2" s="3" customFormat="1">
-      <c r="B180" s="52"/>
+      <c r="B180" s="48"/>
     </row>
     <row r="181" spans="2:2" s="3" customFormat="1">
-      <c r="B181" s="52"/>
+      <c r="B181" s="48"/>
     </row>
     <row r="182" spans="2:2" s="3" customFormat="1">
-      <c r="B182" s="52"/>
+      <c r="B182" s="48"/>
     </row>
     <row r="183" spans="2:2" s="3" customFormat="1">
-      <c r="B183" s="52"/>
+      <c r="B183" s="48"/>
     </row>
     <row r="184" spans="2:2" s="3" customFormat="1">
-      <c r="B184" s="52"/>
+      <c r="B184" s="48"/>
     </row>
     <row r="185" spans="2:2" s="3" customFormat="1">
-      <c r="B185" s="52"/>
+      <c r="B185" s="48"/>
     </row>
     <row r="186" spans="2:2" s="3" customFormat="1">
-      <c r="B186" s="52"/>
+      <c r="B186" s="48"/>
     </row>
     <row r="187" spans="2:2" s="3" customFormat="1">
-      <c r="B187" s="52"/>
+      <c r="B187" s="48"/>
     </row>
     <row r="188" spans="2:2" s="3" customFormat="1">
-      <c r="B188" s="52"/>
+      <c r="B188" s="48"/>
     </row>
     <row r="189" spans="2:2" s="3" customFormat="1">
-      <c r="B189" s="52"/>
+      <c r="B189" s="48"/>
     </row>
     <row r="190" spans="2:2" s="3" customFormat="1">
-      <c r="B190" s="52"/>
+      <c r="B190" s="48"/>
     </row>
     <row r="191" spans="2:2" s="3" customFormat="1">
-      <c r="B191" s="52"/>
+      <c r="B191" s="48"/>
     </row>
     <row r="192" spans="2:2" s="3" customFormat="1">
-      <c r="B192" s="52"/>
+      <c r="B192" s="48"/>
     </row>
     <row r="193" spans="2:2" s="3" customFormat="1">
-      <c r="B193" s="52"/>
+      <c r="B193" s="48"/>
     </row>
     <row r="194" spans="2:2" s="3" customFormat="1">
-      <c r="B194" s="52"/>
+      <c r="B194" s="48"/>
     </row>
     <row r="195" spans="2:2" s="3" customFormat="1">
-      <c r="B195" s="52"/>
+      <c r="B195" s="48"/>
     </row>
     <row r="196" spans="2:2" s="3" customFormat="1">
-      <c r="B196" s="52"/>
+      <c r="B196" s="48"/>
     </row>
     <row r="197" spans="2:2" s="3" customFormat="1">
-      <c r="B197" s="52"/>
+      <c r="B197" s="48"/>
     </row>
     <row r="198" spans="2:2" s="3" customFormat="1">
-      <c r="B198" s="52"/>
+      <c r="B198" s="48"/>
     </row>
     <row r="199" spans="2:2" s="3" customFormat="1">
-      <c r="B199" s="52"/>
+      <c r="B199" s="48"/>
     </row>
     <row r="200" spans="2:2" s="3" customFormat="1">
-      <c r="B200" s="52"/>
+      <c r="B200" s="48"/>
     </row>
     <row r="201" spans="2:2" s="3" customFormat="1">
-      <c r="B201" s="52"/>
+      <c r="B201" s="48"/>
     </row>
     <row r="202" spans="2:2" s="3" customFormat="1">
-      <c r="B202" s="52"/>
+      <c r="B202" s="48"/>
     </row>
     <row r="203" spans="2:2" s="3" customFormat="1">
-      <c r="B203" s="52"/>
+      <c r="B203" s="48"/>
     </row>
     <row r="204" spans="2:2" s="3" customFormat="1">
-      <c r="B204" s="52"/>
+      <c r="B204" s="48"/>
     </row>
     <row r="205" spans="2:2" s="3" customFormat="1">
-      <c r="B205" s="52"/>
+      <c r="B205" s="48"/>
     </row>
     <row r="206" spans="2:2" s="3" customFormat="1">
-      <c r="B206" s="52"/>
+      <c r="B206" s="48"/>
     </row>
     <row r="207" spans="2:2" s="3" customFormat="1">
-      <c r="B207" s="52"/>
+      <c r="B207" s="48"/>
     </row>
     <row r="208" spans="2:2" s="3" customFormat="1">
-      <c r="B208" s="52"/>
+      <c r="B208" s="48"/>
     </row>
     <row r="209" spans="2:2" s="3" customFormat="1">
-      <c r="B209" s="52"/>
+      <c r="B209" s="48"/>
     </row>
     <row r="210" spans="2:2" s="3" customFormat="1">
-      <c r="B210" s="52"/>
+      <c r="B210" s="48"/>
     </row>
     <row r="211" spans="2:2" s="3" customFormat="1">
-      <c r="B211" s="52"/>
+      <c r="B211" s="48"/>
     </row>
     <row r="212" spans="2:2" s="3" customFormat="1">
-      <c r="B212" s="52"/>
+      <c r="B212" s="48"/>
     </row>
     <row r="213" spans="2:2" s="3" customFormat="1">
-      <c r="B213" s="52"/>
+      <c r="B213" s="48"/>
     </row>
     <row r="214" spans="2:2" s="3" customFormat="1">
-      <c r="B214" s="52"/>
+      <c r="B214" s="48"/>
     </row>
     <row r="215" spans="2:2" s="3" customFormat="1">
-      <c r="B215" s="52"/>
+      <c r="B215" s="48"/>
     </row>
     <row r="216" spans="2:2" s="3" customFormat="1">
-      <c r="B216" s="52"/>
+      <c r="B216" s="48"/>
     </row>
     <row r="217" spans="2:2" s="3" customFormat="1">
-      <c r="B217" s="52"/>
+      <c r="B217" s="48"/>
     </row>
     <row r="218" spans="2:2" s="3" customFormat="1">
-      <c r="B218" s="52"/>
+      <c r="B218" s="48"/>
     </row>
     <row r="219" spans="2:2" s="3" customFormat="1">
-      <c r="B219" s="52"/>
+      <c r="B219" s="48"/>
     </row>
     <row r="220" spans="2:2" s="3" customFormat="1">
-      <c r="B220" s="52"/>
+      <c r="B220" s="48"/>
     </row>
     <row r="221" spans="2:2" s="3" customFormat="1">
-      <c r="B221" s="52"/>
+      <c r="B221" s="48"/>
     </row>
     <row r="222" spans="2:2" s="3" customFormat="1">
-      <c r="B222" s="52"/>
+      <c r="B222" s="48"/>
     </row>
     <row r="223" spans="2:2" s="3" customFormat="1">
-      <c r="B223" s="52"/>
+      <c r="B223" s="48"/>
     </row>
     <row r="224" spans="2:2" s="3" customFormat="1">
-      <c r="B224" s="52"/>
+      <c r="B224" s="48"/>
     </row>
     <row r="225" spans="2:2" s="3" customFormat="1">
-      <c r="B225" s="52"/>
+      <c r="B225" s="48"/>
     </row>
     <row r="226" spans="2:2" s="3" customFormat="1">
-      <c r="B226" s="52"/>
+      <c r="B226" s="48"/>
     </row>
     <row r="227" spans="2:2" s="3" customFormat="1">
-      <c r="B227" s="52"/>
+      <c r="B227" s="48"/>
     </row>
     <row r="228" spans="2:2" s="3" customFormat="1">
-      <c r="B228" s="52"/>
+      <c r="B228" s="48"/>
     </row>
     <row r="229" spans="2:2" s="3" customFormat="1">
-      <c r="B229" s="52"/>
+      <c r="B229" s="48"/>
     </row>
     <row r="230" spans="2:2" s="3" customFormat="1">
-      <c r="B230" s="52"/>
+      <c r="B230" s="48"/>
     </row>
     <row r="231" spans="2:2" s="3" customFormat="1">
-      <c r="B231" s="52"/>
+      <c r="B231" s="48"/>
     </row>
     <row r="232" spans="2:2" s="3" customFormat="1">
-      <c r="B232" s="52"/>
+      <c r="B232" s="48"/>
     </row>
     <row r="233" spans="2:2" s="3" customFormat="1">
-      <c r="B233" s="52"/>
+      <c r="B233" s="48"/>
     </row>
     <row r="234" spans="2:2" s="3" customFormat="1">
-      <c r="B234" s="52"/>
+      <c r="B234" s="48"/>
     </row>
     <row r="235" spans="2:2" s="3" customFormat="1">
-      <c r="B235" s="52"/>
+      <c r="B235" s="48"/>
     </row>
     <row r="236" spans="2:2" s="3" customFormat="1">
-      <c r="B236" s="52"/>
+      <c r="B236" s="48"/>
     </row>
     <row r="237" spans="2:2" s="3" customFormat="1">
-      <c r="B237" s="52"/>
+      <c r="B237" s="48"/>
     </row>
     <row r="238" spans="2:2" s="3" customFormat="1">
-      <c r="B238" s="52"/>
+      <c r="B238" s="48"/>
     </row>
     <row r="239" spans="2:2" s="3" customFormat="1">
-      <c r="B239" s="52"/>
+      <c r="B239" s="48"/>
     </row>
     <row r="240" spans="2:2" s="3" customFormat="1">
-      <c r="B240" s="52"/>
+      <c r="B240" s="48"/>
     </row>
     <row r="241" spans="2:2" s="3" customFormat="1">
-      <c r="B241" s="52"/>
+      <c r="B241" s="48"/>
     </row>
     <row r="242" spans="2:2" s="3" customFormat="1">
-      <c r="B242" s="52"/>
+      <c r="B242" s="48"/>
     </row>
     <row r="243" spans="2:2" s="3" customFormat="1">
-      <c r="B243" s="52"/>
+      <c r="B243" s="48"/>
     </row>
     <row r="244" spans="2:2" s="3" customFormat="1">
-      <c r="B244" s="52"/>
+      <c r="B244" s="48"/>
     </row>
     <row r="245" spans="2:2" s="3" customFormat="1">
-      <c r="B245" s="52"/>
+      <c r="B245" s="48"/>
     </row>
     <row r="246" spans="2:2" s="3" customFormat="1">
-      <c r="B246" s="52"/>
+      <c r="B246" s="48"/>
     </row>
     <row r="247" spans="2:2" s="3" customFormat="1">
-      <c r="B247" s="52"/>
+      <c r="B247" s="48"/>
     </row>
     <row r="248" spans="2:2" s="3" customFormat="1">
-      <c r="B248" s="52"/>
+      <c r="B248" s="48"/>
     </row>
     <row r="249" spans="2:2" s="3" customFormat="1">
-      <c r="B249" s="52"/>
+      <c r="B249" s="48"/>
     </row>
     <row r="250" spans="2:2" s="3" customFormat="1">
-      <c r="B250" s="52"/>
+      <c r="B250" s="48"/>
     </row>
     <row r="251" spans="2:2" s="3" customFormat="1">
-      <c r="B251" s="52"/>
+      <c r="B251" s="48"/>
     </row>
     <row r="252" spans="2:2" s="3" customFormat="1">
-      <c r="B252" s="52"/>
+      <c r="B252" s="48"/>
     </row>
     <row r="253" spans="2:2" s="3" customFormat="1">
-      <c r="B253" s="52"/>
+      <c r="B253" s="48"/>
     </row>
     <row r="254" spans="2:2" s="3" customFormat="1">
-      <c r="B254" s="52"/>
+      <c r="B254" s="48"/>
     </row>
     <row r="255" spans="2:2" s="3" customFormat="1">
-      <c r="B255" s="52"/>
+      <c r="B255" s="48"/>
     </row>
     <row r="256" spans="2:2" s="3" customFormat="1">
-      <c r="B256" s="52"/>
+      <c r="B256" s="48"/>
     </row>
     <row r="257" spans="2:2" s="3" customFormat="1">
-      <c r="B257" s="52"/>
+      <c r="B257" s="48"/>
     </row>
     <row r="258" spans="2:2" s="3" customFormat="1">
-      <c r="B258" s="52"/>
+      <c r="B258" s="48"/>
     </row>
     <row r="259" spans="2:2" s="3" customFormat="1">
-      <c r="B259" s="52"/>
+      <c r="B259" s="48"/>
     </row>
     <row r="260" spans="2:2" s="3" customFormat="1">
-      <c r="B260" s="52"/>
+      <c r="B260" s="48"/>
     </row>
     <row r="261" spans="2:2" s="3" customFormat="1">
-      <c r="B261" s="52"/>
+      <c r="B261" s="48"/>
     </row>
     <row r="262" spans="2:2" s="3" customFormat="1">
-      <c r="B262" s="52"/>
+      <c r="B262" s="48"/>
     </row>
     <row r="263" spans="2:2" s="3" customFormat="1">
-      <c r="B263" s="52"/>
+      <c r="B263" s="48"/>
     </row>
     <row r="264" spans="2:2" s="3" customFormat="1">
-      <c r="B264" s="52"/>
+      <c r="B264" s="48"/>
     </row>
     <row r="265" spans="2:2" s="3" customFormat="1">
-      <c r="B265" s="52"/>
+      <c r="B265" s="48"/>
     </row>
     <row r="266" spans="2:2" s="3" customFormat="1">
-      <c r="B266" s="52"/>
+      <c r="B266" s="48"/>
     </row>
     <row r="267" spans="2:2" s="3" customFormat="1">
-      <c r="B267" s="52"/>
+      <c r="B267" s="48"/>
     </row>
     <row r="268" spans="2:2" s="3" customFormat="1">
-      <c r="B268" s="52"/>
+      <c r="B268" s="48"/>
     </row>
     <row r="269" spans="2:2" s="3" customFormat="1">
-      <c r="B269" s="52"/>
+      <c r="B269" s="48"/>
     </row>
     <row r="270" spans="2:2" s="3" customFormat="1">
-      <c r="B270" s="52"/>
+      <c r="B270" s="48"/>
     </row>
     <row r="271" spans="2:2" s="3" customFormat="1">
-      <c r="B271" s="52"/>
+      <c r="B271" s="48"/>
     </row>
     <row r="272" spans="2:2" s="3" customFormat="1">
-      <c r="B272" s="52"/>
+      <c r="B272" s="48"/>
     </row>
     <row r="273" spans="2:2" s="3" customFormat="1">
-      <c r="B273" s="52"/>
+      <c r="B273" s="48"/>
     </row>
     <row r="274" spans="2:2" s="3" customFormat="1">
-      <c r="B274" s="52"/>
+      <c r="B274" s="48"/>
     </row>
     <row r="275" spans="2:2" s="3" customFormat="1">
-      <c r="B275" s="52"/>
+      <c r="B275" s="48"/>
     </row>
     <row r="276" spans="2:2" s="3" customFormat="1">
-      <c r="B276" s="52"/>
+      <c r="B276" s="48"/>
     </row>
     <row r="277" spans="2:2" s="3" customFormat="1">
-      <c r="B277" s="52"/>
+      <c r="B277" s="48"/>
     </row>
     <row r="278" spans="2:2" s="3" customFormat="1">
-      <c r="B278" s="52"/>
+      <c r="B278" s="48"/>
     </row>
     <row r="279" spans="2:2" s="3" customFormat="1">
-      <c r="B279" s="52"/>
+      <c r="B279" s="48"/>
     </row>
     <row r="280" spans="2:2" s="3" customFormat="1">
-      <c r="B280" s="52"/>
+      <c r="B280" s="48"/>
     </row>
     <row r="281" spans="2:2" s="3" customFormat="1">
-      <c r="B281" s="52"/>
+      <c r="B281" s="48"/>
     </row>
     <row r="282" spans="2:2" s="3" customFormat="1">
-      <c r="B282" s="52"/>
+      <c r="B282" s="48"/>
     </row>
     <row r="283" spans="2:2" s="3" customFormat="1">
-      <c r="B283" s="52"/>
+      <c r="B283" s="48"/>
     </row>
     <row r="284" spans="2:2" s="3" customFormat="1">
-      <c r="B284" s="52"/>
+      <c r="B284" s="48"/>
     </row>
     <row r="285" spans="2:2" s="3" customFormat="1">
-      <c r="B285" s="52"/>
+      <c r="B285" s="48"/>
     </row>
     <row r="286" spans="2:2" s="3" customFormat="1">
-      <c r="B286" s="52"/>
+      <c r="B286" s="48"/>
     </row>
     <row r="287" spans="2:2" s="3" customFormat="1">
-      <c r="B287" s="52"/>
+      <c r="B287" s="48"/>
     </row>
     <row r="288" spans="2:2" s="3" customFormat="1">
-      <c r="B288" s="52"/>
+      <c r="B288" s="48"/>
     </row>
     <row r="289" spans="2:2" s="3" customFormat="1">
-      <c r="B289" s="52"/>
+      <c r="B289" s="48"/>
     </row>
     <row r="290" spans="2:2" s="3" customFormat="1">
-      <c r="B290" s="52"/>
+      <c r="B290" s="48"/>
     </row>
     <row r="291" spans="2:2" s="3" customFormat="1">
-      <c r="B291" s="52"/>
+      <c r="B291" s="48"/>
     </row>
     <row r="292" spans="2:2" s="3" customFormat="1">
-      <c r="B292" s="52"/>
+      <c r="B292" s="48"/>
     </row>
     <row r="293" spans="2:2" s="3" customFormat="1">
-      <c r="B293" s="52"/>
+      <c r="B293" s="48"/>
     </row>
     <row r="294" spans="2:2" s="3" customFormat="1">
-      <c r="B294" s="52"/>
+      <c r="B294" s="48"/>
     </row>
     <row r="295" spans="2:2" s="3" customFormat="1">
-      <c r="B295" s="52"/>
+      <c r="B295" s="48"/>
     </row>
     <row r="296" spans="2:2" s="3" customFormat="1">
-      <c r="B296" s="52"/>
+      <c r="B296" s="48"/>
     </row>
     <row r="297" spans="2:2" s="3" customFormat="1">
-      <c r="B297" s="52"/>
+      <c r="B297" s="48"/>
     </row>
     <row r="298" spans="2:2" s="3" customFormat="1">
-      <c r="B298" s="52"/>
+      <c r="B298" s="48"/>
     </row>
     <row r="299" spans="2:2" s="3" customFormat="1">
-      <c r="B299" s="52"/>
+      <c r="B299" s="48"/>
     </row>
     <row r="300" spans="2:2" s="3" customFormat="1">
-      <c r="B300" s="52"/>
+      <c r="B300" s="48"/>
     </row>
     <row r="301" spans="2:2" s="3" customFormat="1">
-      <c r="B301" s="52"/>
+      <c r="B301" s="48"/>
     </row>
     <row r="302" spans="2:2" s="3" customFormat="1">
-      <c r="B302" s="52"/>
+      <c r="B302" s="48"/>
     </row>
     <row r="303" spans="2:2" s="3" customFormat="1">
-      <c r="B303" s="52"/>
+      <c r="B303" s="48"/>
     </row>
     <row r="304" spans="2:2" s="3" customFormat="1">
-      <c r="B304" s="52"/>
+      <c r="B304" s="48"/>
     </row>
     <row r="305" spans="2:2" s="3" customFormat="1">
-      <c r="B305" s="52"/>
+      <c r="B305" s="48"/>
     </row>
     <row r="306" spans="2:2" s="3" customFormat="1">
-      <c r="B306" s="52"/>
+      <c r="B306" s="48"/>
     </row>
     <row r="307" spans="2:2" s="3" customFormat="1">
-      <c r="B307" s="52"/>
+      <c r="B307" s="48"/>
     </row>
     <row r="308" spans="2:2" s="3" customFormat="1">
-      <c r="B308" s="52"/>
+      <c r="B308" s="48"/>
     </row>
     <row r="309" spans="2:2" s="3" customFormat="1">
-      <c r="B309" s="52"/>
+      <c r="B309" s="48"/>
     </row>
     <row r="310" spans="2:2" s="3" customFormat="1">
-      <c r="B310" s="52"/>
+      <c r="B310" s="48"/>
     </row>
     <row r="311" spans="2:2" s="3" customFormat="1">
-      <c r="B311" s="52"/>
+      <c r="B311" s="48"/>
     </row>
     <row r="312" spans="2:2" s="3" customFormat="1">
-      <c r="B312" s="52"/>
+      <c r="B312" s="48"/>
     </row>
     <row r="313" spans="2:2" s="3" customFormat="1">
-      <c r="B313" s="52"/>
+      <c r="B313" s="48"/>
     </row>
     <row r="314" spans="2:2" s="3" customFormat="1">
-      <c r="B314" s="52"/>
+      <c r="B314" s="48"/>
     </row>
     <row r="315" spans="2:2" s="3" customFormat="1">
-      <c r="B315" s="52"/>
+      <c r="B315" s="48"/>
     </row>
     <row r="316" spans="2:2" s="3" customFormat="1">
-      <c r="B316" s="52"/>
+      <c r="B316" s="48"/>
     </row>
     <row r="317" spans="2:2" s="3" customFormat="1">
-      <c r="B317" s="52"/>
+      <c r="B317" s="48"/>
     </row>
     <row r="318" spans="2:2" s="3" customFormat="1">
-      <c r="B318" s="52"/>
+      <c r="B318" s="48"/>
     </row>
     <row r="319" spans="2:2" s="3" customFormat="1">
-      <c r="B319" s="52"/>
+      <c r="B319" s="48"/>
     </row>
     <row r="320" spans="2:2" s="3" customFormat="1">
-      <c r="B320" s="52"/>
+      <c r="B320" s="48"/>
     </row>
     <row r="321" spans="2:2" s="3" customFormat="1">
-      <c r="B321" s="52"/>
+      <c r="B321" s="48"/>
     </row>
     <row r="322" spans="2:2" s="3" customFormat="1">
-      <c r="B322" s="52"/>
+      <c r="B322" s="48"/>
     </row>
     <row r="323" spans="2:2" s="3" customFormat="1">
-      <c r="B323" s="52"/>
+      <c r="B323" s="48"/>
     </row>
     <row r="324" spans="2:2" s="3" customFormat="1">
-      <c r="B324" s="52"/>
+      <c r="B324" s="48"/>
     </row>
     <row r="325" spans="2:2" s="3" customFormat="1">
-      <c r="B325" s="52"/>
+      <c r="B325" s="48"/>
     </row>
     <row r="326" spans="2:2" s="3" customFormat="1">
-      <c r="B326" s="52"/>
+      <c r="B326" s="48"/>
     </row>
     <row r="327" spans="2:2" s="3" customFormat="1">
-      <c r="B327" s="52"/>
+      <c r="B327" s="48"/>
     </row>
     <row r="328" spans="2:2" s="3" customFormat="1">
-      <c r="B328" s="52"/>
+      <c r="B328" s="48"/>
     </row>
     <row r="329" spans="2:2" s="3" customFormat="1">
-      <c r="B329" s="52"/>
+      <c r="B329" s="48"/>
     </row>
     <row r="330" spans="2:2" s="3" customFormat="1">
-      <c r="B330" s="52"/>
+      <c r="B330" s="48"/>
     </row>
     <row r="331" spans="2:2" s="3" customFormat="1">
-      <c r="B331" s="52"/>
+      <c r="B331" s="48"/>
     </row>
     <row r="332" spans="2:2" s="3" customFormat="1">
-      <c r="B332" s="52"/>
+      <c r="B332" s="48"/>
     </row>
     <row r="333" spans="2:2" s="3" customFormat="1">
-      <c r="B333" s="52"/>
+      <c r="B333" s="48"/>
     </row>
     <row r="334" spans="2:2" s="3" customFormat="1">
-      <c r="B334" s="52"/>
+      <c r="B334" s="48"/>
     </row>
     <row r="335" spans="2:2" s="3" customFormat="1">
-      <c r="B335" s="52"/>
+      <c r="B335" s="48"/>
     </row>
     <row r="336" spans="2:2" s="3" customFormat="1">
-      <c r="B336" s="52"/>
+      <c r="B336" s="48"/>
     </row>
     <row r="337" spans="2:2" s="3" customFormat="1">
-      <c r="B337" s="52"/>
+      <c r="B337" s="48"/>
     </row>
     <row r="338" spans="2:2" s="3" customFormat="1">
-      <c r="B338" s="52"/>
+      <c r="B338" s="48"/>
     </row>
     <row r="339" spans="2:2" s="3" customFormat="1">
-      <c r="B339" s="52"/>
+      <c r="B339" s="48"/>
     </row>
     <row r="340" spans="2:2" s="3" customFormat="1">
-      <c r="B340" s="52"/>
+      <c r="B340" s="48"/>
     </row>
     <row r="341" spans="2:2" s="3" customFormat="1">
-      <c r="B341" s="52"/>
+      <c r="B341" s="48"/>
     </row>
     <row r="342" spans="2:2" s="3" customFormat="1">
-      <c r="B342" s="52"/>
+      <c r="B342" s="48"/>
     </row>
     <row r="343" spans="2:2" s="3" customFormat="1">
-      <c r="B343" s="52"/>
+      <c r="B343" s="48"/>
     </row>
     <row r="344" spans="2:2" s="3" customFormat="1">
-      <c r="B344" s="52"/>
+      <c r="B344" s="48"/>
     </row>
     <row r="345" spans="2:2" s="3" customFormat="1">
-      <c r="B345" s="52"/>
+      <c r="B345" s="48"/>
     </row>
     <row r="346" spans="2:2" s="3" customFormat="1">
-      <c r="B346" s="52"/>
+      <c r="B346" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -77482,14 +77527,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView topLeftCell="E2" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="24.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.1640625" style="51" customWidth="1"/>
+    <col min="2" max="2" width="24.1640625" style="47" customWidth="1"/>
     <col min="3" max="3" width="34" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.1640625" style="39" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="53.6640625" customWidth="1"/>
@@ -77498,13 +77543,13 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="31" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B1" s="31" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="C1" s="31" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D1" s="37" t="s">
         <v>19</v>
@@ -77513,44 +77558,44 @@
         <v>20</v>
       </c>
       <c r="F1" s="31" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="45">
       <c r="A2" s="25" t="s">
-        <v>388</v>
-      </c>
-      <c r="B2" s="51" t="s">
-        <v>888</v>
+        <v>386</v>
+      </c>
+      <c r="B2" s="47" t="s">
+        <v>886</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D2" s="13" t="s">
         <v>50</v>
       </c>
       <c r="E2" s="26" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="51" t="s">
-        <v>888</v>
+      <c r="B3" s="47" t="s">
+        <v>886</v>
       </c>
       <c r="C3" s="34" t="s">
         <v>22</v>
       </c>
       <c r="D3" s="38" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E3" s="34" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F3" s="34" t="s">
         <v>213</v>
@@ -77558,19 +77603,19 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="36" t="s">
-        <v>416</v>
-      </c>
-      <c r="B4" s="51" t="s">
-        <v>888</v>
+        <v>414</v>
+      </c>
+      <c r="B4" s="47" t="s">
+        <v>886</v>
       </c>
       <c r="C4" s="34" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="D4" s="38" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E4" s="34" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="F4" s="34" t="s">
         <v>213</v>
@@ -77578,369 +77623,369 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="28" t="s">
-        <v>627</v>
-      </c>
-      <c r="B5" s="51" t="s">
-        <v>888</v>
+        <v>625</v>
+      </c>
+      <c r="B5" s="47" t="s">
+        <v>886</v>
       </c>
       <c r="C5" t="s">
         <v>64</v>
       </c>
       <c r="D5" s="38" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E5" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="28" t="s">
-        <v>623</v>
-      </c>
-      <c r="B6" s="51" t="s">
-        <v>888</v>
+        <v>621</v>
+      </c>
+      <c r="B6" s="47" t="s">
+        <v>886</v>
       </c>
       <c r="C6" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="D6" s="38" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="E6" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>148</v>
       </c>
-      <c r="B7" s="51" t="s">
-        <v>889</v>
+      <c r="B7" s="47" t="s">
+        <v>887</v>
       </c>
       <c r="C7" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="D7" s="38" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E7" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="28" t="s">
-        <v>710</v>
-      </c>
-      <c r="B8" s="51" t="s">
-        <v>888</v>
+        <v>708</v>
+      </c>
+      <c r="B8" s="47" t="s">
+        <v>886</v>
       </c>
       <c r="C8" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="D8" s="38" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="E8" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="F8" s="29" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>711</v>
-      </c>
-      <c r="B9" s="51" t="s">
-        <v>889</v>
+        <v>709</v>
+      </c>
+      <c r="B9" s="47" t="s">
+        <v>887</v>
       </c>
       <c r="C9" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="D9" s="38" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E9" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>712</v>
-      </c>
-      <c r="B10" s="51" t="s">
-        <v>889</v>
+        <v>710</v>
+      </c>
+      <c r="B10" s="47" t="s">
+        <v>887</v>
       </c>
       <c r="C10" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="D10" s="38" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="E10" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>713</v>
-      </c>
-      <c r="B11" s="51" t="s">
-        <v>889</v>
+        <v>711</v>
+      </c>
+      <c r="B11" s="47" t="s">
+        <v>887</v>
       </c>
       <c r="C11" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="D11" s="38" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="E11" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>714</v>
-      </c>
-      <c r="B12" s="51" t="s">
-        <v>889</v>
+        <v>712</v>
+      </c>
+      <c r="B12" s="47" t="s">
+        <v>887</v>
       </c>
       <c r="C12" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="D12" s="39" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="E12" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="F12" s="29" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>715</v>
-      </c>
-      <c r="B13" s="51" t="s">
-        <v>889</v>
+        <v>713</v>
+      </c>
+      <c r="B13" s="47" t="s">
+        <v>887</v>
       </c>
       <c r="C13" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="D13" s="39" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="E13" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>716</v>
-      </c>
-      <c r="B14" s="51" t="s">
-        <v>889</v>
+        <v>714</v>
+      </c>
+      <c r="B14" s="47" t="s">
+        <v>887</v>
       </c>
       <c r="C14" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="D14" s="39" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="E14" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="F14" s="29" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>717</v>
-      </c>
-      <c r="B15" s="51" t="s">
-        <v>889</v>
+        <v>715</v>
+      </c>
+      <c r="B15" s="47" t="s">
+        <v>887</v>
       </c>
       <c r="C15" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="D15" s="39" t="s">
         <v>220</v>
       </c>
       <c r="E15" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="F15" s="41" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>718</v>
-      </c>
-      <c r="B16" s="51" t="s">
-        <v>889</v>
+        <v>716</v>
+      </c>
+      <c r="B16" s="47" t="s">
+        <v>887</v>
       </c>
       <c r="C16" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="D16" s="39" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="E16" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="F16" s="29" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>719</v>
-      </c>
-      <c r="B17" s="51" t="s">
-        <v>889</v>
+        <v>717</v>
+      </c>
+      <c r="B17" s="47" t="s">
+        <v>887</v>
       </c>
       <c r="C17" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="D17" s="39" t="s">
         <v>37</v>
       </c>
       <c r="E17" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="F17" s="43" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="97.25" customHeight="1">
       <c r="A18" t="s">
-        <v>720</v>
-      </c>
-      <c r="B18" s="51" t="s">
-        <v>889</v>
+        <v>718</v>
+      </c>
+      <c r="B18" s="47" t="s">
+        <v>887</v>
       </c>
       <c r="C18" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="D18" s="39" t="s">
         <v>220</v>
       </c>
       <c r="E18" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="F18" s="44" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>721</v>
-      </c>
-      <c r="B19" s="51" t="s">
-        <v>889</v>
+        <v>719</v>
+      </c>
+      <c r="B19" s="47" t="s">
+        <v>887</v>
       </c>
       <c r="C19" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="D19" s="39" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="E19" t="s">
+        <v>778</v>
+      </c>
+      <c r="F19" s="29" t="s">
         <v>780</v>
-      </c>
-      <c r="F19" s="29" t="s">
-        <v>782</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>722</v>
-      </c>
-      <c r="B20" s="51" t="s">
-        <v>889</v>
+        <v>720</v>
+      </c>
+      <c r="B20" s="47" t="s">
+        <v>887</v>
       </c>
       <c r="C20" s="34" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="D20" s="39" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="E20" s="29" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="F20" s="41" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
+        <v>746</v>
+      </c>
+      <c r="B21" s="47" t="s">
+        <v>887</v>
+      </c>
+      <c r="C21" s="29" t="s">
         <v>748</v>
       </c>
-      <c r="B21" s="51" t="s">
-        <v>889</v>
-      </c>
-      <c r="C21" s="29" t="s">
-        <v>750</v>
-      </c>
       <c r="D21" s="39" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="E21" s="29" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>723</v>
-      </c>
-      <c r="B22" s="51" t="s">
-        <v>889</v>
+        <v>721</v>
+      </c>
+      <c r="B22" s="47" t="s">
+        <v>887</v>
       </c>
       <c r="C22" s="29" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="D22" s="39" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E22" s="29" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>724</v>
-      </c>
-      <c r="B23" s="51" t="s">
-        <v>889</v>
+        <v>722</v>
+      </c>
+      <c r="B23" s="47" t="s">
+        <v>887</v>
       </c>
       <c r="C23" s="29" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="D23" s="39" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E23" s="29" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>725</v>
-      </c>
-      <c r="B24" s="51" t="s">
-        <v>889</v>
+        <v>723</v>
+      </c>
+      <c r="B24" s="47" t="s">
+        <v>887</v>
       </c>
       <c r="C24" s="29" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="D24" s="39" t="s">
         <v>104</v>
       </c>
       <c r="E24" s="29" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="F24" s="12" t="s">
         <v>104</v>
@@ -77948,110 +77993,110 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>726</v>
-      </c>
-      <c r="B25" s="51" t="s">
-        <v>889</v>
+        <v>724</v>
+      </c>
+      <c r="B25" s="47" t="s">
+        <v>887</v>
       </c>
       <c r="C25" s="29" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="D25" s="39" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="E25" s="29" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="F25" s="41" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>727</v>
-      </c>
-      <c r="B26" s="51" t="s">
-        <v>889</v>
+        <v>725</v>
+      </c>
+      <c r="B26" s="47" t="s">
+        <v>887</v>
       </c>
       <c r="C26" s="29" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="D26" s="39" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="E26" s="29" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" t="s">
-        <v>728</v>
-      </c>
-      <c r="B27" s="51" t="s">
-        <v>889</v>
+        <v>726</v>
+      </c>
+      <c r="B27" s="47" t="s">
+        <v>887</v>
       </c>
       <c r="C27" s="29" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="D27" s="39" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="E27" s="29" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" t="s">
-        <v>729</v>
-      </c>
-      <c r="B28" s="51" t="s">
-        <v>889</v>
+        <v>727</v>
+      </c>
+      <c r="B28" s="47" t="s">
+        <v>887</v>
       </c>
       <c r="C28" s="29" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="D28" s="39" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="E28" s="29" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="F28" s="41" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>730</v>
-      </c>
-      <c r="B29" s="51" t="s">
-        <v>889</v>
+        <v>728</v>
+      </c>
+      <c r="B29" s="47" t="s">
+        <v>887</v>
       </c>
       <c r="C29" s="29" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="D29" s="39" t="s">
         <v>220</v>
       </c>
       <c r="E29" s="29" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" t="s">
-        <v>731</v>
-      </c>
-      <c r="B30" s="51" t="s">
-        <v>889</v>
+        <v>729</v>
+      </c>
+      <c r="B30" s="47" t="s">
+        <v>887</v>
       </c>
       <c r="C30" s="29" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="D30" s="39" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="E30" s="29" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/Template_info_MPI_v10.xlsx
+++ b/inst/extdata/Template_info_MPI_v10.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/greymonroe/github/soilcarbon/inst/extdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B25770BB-E8F6-3B45-8000-5980937B7600}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{714996D0-973C-694B-A95B-1F309C7B37EE}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10540" yWindow="520" windowWidth="21020" windowHeight="18940" tabRatio="500" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10540" yWindow="460" windowWidth="21020" windowHeight="18940" tabRatio="500" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="general info" sheetId="6" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1761" uniqueCount="894">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1765" uniqueCount="895">
   <si>
     <t>curator_name</t>
   </si>
@@ -2798,6 +2798,9 @@
   </si>
   <si>
     <t>A unique name for a site. See "general information" for details on what qualifies as a Site. Values must match across levels.</t>
+  </si>
+  <si>
+    <t>character</t>
   </si>
 </sst>
 </file>
@@ -4368,7 +4371,7 @@
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
@@ -4426,7 +4429,9 @@
       <c r="E2" s="26" t="s">
         <v>892</v>
       </c>
-      <c r="F2" s="13"/>
+      <c r="F2" s="13" t="s">
+        <v>894</v>
+      </c>
       <c r="G2" s="13"/>
       <c r="H2" s="13"/>
     </row>
@@ -4446,7 +4451,9 @@
       <c r="E3" s="12" t="s">
         <v>893</v>
       </c>
-      <c r="F3" s="12"/>
+      <c r="F3" s="13" t="s">
+        <v>894</v>
+      </c>
       <c r="G3" s="12"/>
       <c r="H3" s="12"/>
     </row>
@@ -4516,7 +4523,9 @@
       <c r="E6" s="12" t="s">
         <v>222</v>
       </c>
-      <c r="F6" s="12"/>
+      <c r="F6" s="13" t="s">
+        <v>894</v>
+      </c>
       <c r="G6" s="12"/>
       <c r="H6" s="12"/>
       <c r="I6" s="12" t="s">
@@ -4565,7 +4574,9 @@
       <c r="E8" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="F8" s="12"/>
+      <c r="F8" s="13" t="s">
+        <v>894</v>
+      </c>
       <c r="G8" s="12"/>
       <c r="H8" s="12"/>
     </row>
